--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D927A8E-81BC-48DF-A7BA-B4315B60E0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1FF63C-19B5-4090-888C-FF0BDE72AB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="392">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1183,15 +1183,6 @@
     <t>Wilson41</t>
   </si>
   <si>
-    <t>Patric42</t>
-  </si>
-  <si>
-    <t>Wilson42</t>
-  </si>
-  <si>
-    <t>ssr42@gmail.com</t>
-  </si>
-  <si>
     <t>ssr44@gmail.com</t>
   </si>
   <si>
@@ -1201,22 +1192,13 @@
     <t>Wilson44</t>
   </si>
   <si>
-    <t>ssr46@gmail.com</t>
-  </si>
-  <si>
     <t>ssr47@gmail.com</t>
   </si>
   <si>
     <t>Event Created By Automation7</t>
   </si>
   <si>
-    <t>EventAutomation8</t>
-  </si>
-  <si>
     <t>EventAutomation9</t>
-  </si>
-  <si>
-    <t>http://www.myevents.com/automationevent987899</t>
   </si>
   <si>
     <t>http://www.myevents.com/automationevent9878999</t>
@@ -1429,17 +1411,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1447,17 +1423,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1768,7 +1750,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -1782,7 +1764,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -1942,13 +1924,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="41"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="41"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1961,7 +1943,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2228,7 +2210,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="42"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2261,7 +2243,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="42"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2606,14 +2588,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3151,13 +3133,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3185,13 +3167,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3219,6 +3201,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3235,11 +3222,6 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3345,9 +3327,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE47"/>
+  <dimension ref="A1:AE46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3396,13 +3378,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3416,50 +3398,50 @@
       <c r="G2" s="36" t="s">
         <v>382</v>
       </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="23"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -3473,10 +3455,11 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="23"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="23"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
@@ -3598,75 +3581,67 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-    </row>
-    <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="16"/>
-    </row>
-    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+    <row r="11" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
@@ -3684,125 +3659,128 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="16"/>
-    </row>
-    <row r="17" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-    </row>
-    <row r="20" spans="2:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="16"/>
+    </row>
+    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+    </row>
+    <row r="19" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="15"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="23"/>
+      <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3821,7 +3799,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3840,15 +3818,15 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -3859,15 +3837,15 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -3878,14 +3856,14 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+    <row r="26" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -3897,7 +3875,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -3916,52 +3894,52 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+    <row r="28" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+    <row r="29" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+    <row r="30" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -3973,41 +3951,41 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+    <row r="31" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+    <row r="32" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="35"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
@@ -4021,7 +3999,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="35"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -4031,40 +4009,40 @@
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="35"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
@@ -4078,7 +4056,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="35"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -4088,54 +4066,54 @@
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="35"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="35"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -4163,7 +4141,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -4209,16 +4187,6 @@
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
@@ -4247,29 +4215,19 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{1E72998F-D12D-4ABD-9FF6-632927FA01A4}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{35CA1DAD-660B-453C-9A6E-255AD1E77359}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{35CA1DAD-660B-453C-9A6E-255AD1E77359}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -4312,8 +4270,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>391</v>
+      <c r="A2" s="33" t="s">
+        <v>388</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>383</v>
@@ -4337,36 +4295,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{23449C0A-3E4C-4892-9DF2-9181A0499BB2}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{7A72A927-4BAB-4907-BD23-85281E06CB89}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A72A927-4BAB-4907-BD23-85281E06CB89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4401,9 +4332,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -4427,30 +4358,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D3B9450A-B03E-4978-864F-767D2F738B12}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{36D916D7-1D27-4018-884C-6B577DE35246}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{36D916D7-1D27-4018-884C-6B577DE35246}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5127,7 +5046,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -5183,7 +5102,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -5327,7 +5246,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="37" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -5338,7 +5257,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="46" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -5370,7 +5289,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -5379,7 +5298,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="45"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -5419,7 +5338,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="45" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -5440,7 +5359,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="44" t="s">
+      <c r="K33" s="45" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -5460,7 +5379,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -5479,7 +5398,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="44"/>
+      <c r="K34" s="45"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -5500,7 +5419,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="45" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -5521,7 +5440,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="44" t="s">
+      <c r="K36" s="45" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -5541,7 +5460,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -5560,7 +5479,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="44"/>
+      <c r="K37" s="45"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -5578,7 +5497,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="46" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -5596,7 +5515,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="44" t="s">
+      <c r="K39" s="45" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -5616,7 +5535,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -5632,7 +5551,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="44"/>
+      <c r="K40" s="45"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -5650,7 +5569,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -5685,7 +5604,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -5730,7 +5649,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -5783,7 +5702,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -5834,7 +5753,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="37" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5899,7 +5818,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -5963,11 +5882,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -5977,6 +5891,11 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1FF63C-19B5-4090-888C-FF0BDE72AB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7227403D-4D78-44E1-9409-2C20BAC30EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -1183,18 +1183,12 @@
     <t>Wilson41</t>
   </si>
   <si>
-    <t>ssr44@gmail.com</t>
-  </si>
-  <si>
     <t>Patric44</t>
   </si>
   <si>
     <t>Wilson44</t>
   </si>
   <si>
-    <t>ssr47@gmail.com</t>
-  </si>
-  <si>
     <t>Event Created By Automation7</t>
   </si>
   <si>
@@ -1202,6 +1196,12 @@
   </si>
   <si>
     <t>http://www.myevents.com/automationevent9878999</t>
+  </si>
+  <si>
+    <t>ssr51@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr52@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3329,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3378,13 +3378,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -4218,7 +4218,7 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{35CA1DAD-660B-453C-9A6E-255AD1E77359}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F04E53C0-2E63-4EE9-B7F0-5AECA9291772}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4229,8 +4229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>383</v>
@@ -4297,7 +4297,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A72A927-4BAB-4907-BD23-85281E06CB89}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1FE916CF-5362-48A7-B84A-0E6E7E90D1F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>389</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7227403D-4D78-44E1-9409-2C20BAC30EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9965E0-7D0A-4D80-90AC-A473F88E54A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -1189,19 +1189,19 @@
     <t>Wilson44</t>
   </si>
   <si>
-    <t>Event Created By Automation7</t>
-  </si>
-  <si>
-    <t>EventAutomation9</t>
-  </si>
-  <si>
-    <t>http://www.myevents.com/automationevent9878999</t>
-  </si>
-  <si>
     <t>ssr51@gmail.com</t>
   </si>
   <si>
     <t>ssr52@gmail.com</t>
+  </si>
+  <si>
+    <t>EventAutomation19</t>
+  </si>
+  <si>
+    <t>Event Created By Automation17</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789999</t>
   </si>
 </sst>
 </file>
@@ -1411,11 +1411,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1423,23 +1429,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1750,7 +1750,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -1764,7 +1764,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -1924,13 +1924,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="37"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="37"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1943,7 +1943,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2210,7 +2210,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="39"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2243,7 +2243,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="39"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2588,14 +2588,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3201,11 +3201,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3222,6 +3217,11 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>385</v>
@@ -4229,7 +4229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>383</v>
@@ -4334,8 +4334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4358,18 +4358,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{36D916D7-1D27-4018-884C-6B577DE35246}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{93D1F61C-96E2-42D1-B1CC-0BD9A62A9760}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5046,7 +5046,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -5102,7 +5102,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -5246,7 +5246,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="40" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="45" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -5289,7 +5289,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -5338,7 +5338,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="44" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -5359,7 +5359,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="45" t="s">
+      <c r="K33" s="44" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -5379,7 +5379,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="44"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -5419,7 +5419,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="44" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -5440,7 +5440,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="44" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -5460,7 +5460,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -5479,7 +5479,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="45"/>
+      <c r="K37" s="44"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -5497,7 +5497,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="45" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -5515,7 +5515,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="45" t="s">
+      <c r="K39" s="44" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -5535,7 +5535,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -5551,7 +5551,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="45"/>
+      <c r="K40" s="44"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -5569,7 +5569,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="40" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -5604,7 +5604,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -5649,7 +5649,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="39" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -5702,7 +5702,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -5753,7 +5753,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="40" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5818,7 +5818,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -5882,6 +5882,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -5891,11 +5896,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9965E0-7D0A-4D80-90AC-A473F88E54A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D927A8E-81BC-48DF-A7BA-B4315B60E0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="398">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1183,25 +1183,43 @@
     <t>Wilson41</t>
   </si>
   <si>
+    <t>Patric42</t>
+  </si>
+  <si>
+    <t>Wilson42</t>
+  </si>
+  <si>
+    <t>ssr42@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr44@gmail.com</t>
+  </si>
+  <si>
     <t>Patric44</t>
   </si>
   <si>
     <t>Wilson44</t>
   </si>
   <si>
-    <t>ssr51@gmail.com</t>
-  </si>
-  <si>
-    <t>ssr52@gmail.com</t>
-  </si>
-  <si>
-    <t>EventAutomation19</t>
-  </si>
-  <si>
-    <t>Event Created By Automation17</t>
-  </si>
-  <si>
-    <t>http://www.myevents.com/automationevent98789999</t>
+    <t>ssr46@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr47@gmail.com</t>
+  </si>
+  <si>
+    <t>Event Created By Automation7</t>
+  </si>
+  <si>
+    <t>EventAutomation8</t>
+  </si>
+  <si>
+    <t>EventAutomation9</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent987899</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent9878999</t>
   </si>
 </sst>
 </file>
@@ -3327,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE46"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3398,50 +3416,50 @@
       <c r="G2" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="23"/>
+      <c r="A3" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -3455,11 +3473,10 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="S4" s="23"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+      <c r="V4" s="23"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
@@ -3581,67 +3598,75 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="11" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="16"/>
-    </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="16"/>
+    </row>
+    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
@@ -3659,128 +3684,125 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="16"/>
-    </row>
-    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-    </row>
-    <row r="19" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="16"/>
+    </row>
+    <row r="17" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+    </row>
+    <row r="20" spans="2:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="23"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3799,7 +3821,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3818,15 +3840,15 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -3837,15 +3859,15 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -3856,14 +3878,14 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -3875,7 +3897,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -3894,52 +3916,52 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+    <row r="28" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+    <row r="29" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+    <row r="30" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -3951,41 +3973,41 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="6"/>
+    <row r="31" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+    <row r="32" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="35"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
@@ -3999,7 +4021,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="K33" s="35"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -4009,40 +4031,40 @@
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="35"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
@@ -4056,7 +4078,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="K36" s="35"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -4066,54 +4088,54 @@
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="35"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="K39" s="35"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -4141,7 +4163,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -4187,6 +4209,16 @@
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
@@ -4215,22 +4247,32 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
     </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F04E53C0-2E63-4EE9-B7F0-5AECA9291772}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1E72998F-D12D-4ABD-9FF6-632927FA01A4}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{35CA1DAD-660B-453C-9A6E-255AD1E77359}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4270,8 +4312,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>388</v>
+      <c r="A2" s="23" t="s">
+        <v>391</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>383</v>
@@ -4295,9 +4337,36 @@
         <v>382</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{1FE916CF-5362-48A7-B84A-0E6E7E90D1F7}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{23449C0A-3E4C-4892-9DF2-9181A0499BB2}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{7A72A927-4BAB-4907-BD23-85281E06CB89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4332,10 +4401,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4358,18 +4427,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>391</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{93D1F61C-96E2-42D1-B1CC-0BD9A62A9760}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D3B9450A-B03E-4978-864F-767D2F738B12}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{36D916D7-1D27-4018-884C-6B577DE35246}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D927A8E-81BC-48DF-A7BA-B4315B60E0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52202DB5-1DF2-4008-9D57-A673DBDC35AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="400">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1183,15 +1183,6 @@
     <t>Wilson41</t>
   </si>
   <si>
-    <t>Patric42</t>
-  </si>
-  <si>
-    <t>Wilson42</t>
-  </si>
-  <si>
-    <t>ssr42@gmail.com</t>
-  </si>
-  <si>
     <t>ssr44@gmail.com</t>
   </si>
   <si>
@@ -1201,25 +1192,40 @@
     <t>Wilson44</t>
   </si>
   <si>
-    <t>ssr46@gmail.com</t>
-  </si>
-  <si>
     <t>ssr47@gmail.com</t>
   </si>
   <si>
     <t>Event Created By Automation7</t>
   </si>
   <si>
-    <t>EventAutomation8</t>
-  </si>
-  <si>
     <t>EventAutomation9</t>
   </si>
   <si>
-    <t>http://www.myevents.com/automationevent987899</t>
-  </si>
-  <si>
     <t>http://www.myevents.com/automationevent9878999</t>
+  </si>
+  <si>
+    <t>ssr62@gmail.com</t>
+  </si>
+  <si>
+    <t>Patric62</t>
+  </si>
+  <si>
+    <t>Wilson62</t>
+  </si>
+  <si>
+    <t>ssr66@gmail.com</t>
+  </si>
+  <si>
+    <t>Patric46</t>
+  </si>
+  <si>
+    <t>Wilson46</t>
+  </si>
+  <si>
+    <t>EventAutomation18</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789918</t>
   </si>
 </sst>
 </file>
@@ -1429,17 +1435,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1447,17 +1447,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1768,7 +1774,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -1782,7 +1788,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -1942,13 +1948,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="41"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="41"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1961,7 +1967,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2228,7 +2234,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="42"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2261,7 +2267,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="42"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2606,14 +2612,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3151,13 +3157,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3185,13 +3191,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3219,6 +3225,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3235,11 +3246,6 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3348,7 +3354,7 @@
   <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3396,13 +3402,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3419,13 +3425,13 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -4259,8 +4265,8 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{1E72998F-D12D-4ABD-9FF6-632927FA01A4}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{35CA1DAD-660B-453C-9A6E-255AD1E77359}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{35CA1DAD-660B-453C-9A6E-255AD1E77359}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{EF1677DB-B4E5-415A-B214-1670D5524E0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4272,7 +4278,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4312,14 +4318,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>391</v>
+      <c r="A2" s="33" t="s">
+        <v>395</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -4339,7 +4345,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>383</v>
@@ -4365,8 +4371,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{23449C0A-3E4C-4892-9DF2-9181A0499BB2}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{7A72A927-4BAB-4907-BD23-85281E06CB89}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{7A72A927-4BAB-4907-BD23-85281E06CB89}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{250C0EFC-F392-4631-82E9-0E13160B607B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4404,7 +4410,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4427,30 +4433,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D3B9450A-B03E-4978-864F-767D2F738B12}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{36D916D7-1D27-4018-884C-6B577DE35246}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{36D916D7-1D27-4018-884C-6B577DE35246}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{619D9C47-A3C4-4E0C-9C2E-028A7877C1AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5127,7 +5133,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -5183,7 +5189,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -5327,7 +5333,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="37" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -5338,7 +5344,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="46" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -5370,7 +5376,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -5379,7 +5385,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="45"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -5419,7 +5425,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="45" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -5440,7 +5446,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="44" t="s">
+      <c r="K33" s="45" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -5460,7 +5466,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -5479,7 +5485,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="44"/>
+      <c r="K34" s="45"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -5500,7 +5506,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="45" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -5521,7 +5527,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="44" t="s">
+      <c r="K36" s="45" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -5541,7 +5547,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -5560,7 +5566,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="44"/>
+      <c r="K37" s="45"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -5578,7 +5584,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="46" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -5596,7 +5602,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="44" t="s">
+      <c r="K39" s="45" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -5616,7 +5622,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -5632,7 +5638,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="44"/>
+      <c r="K40" s="45"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -5650,7 +5656,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -5685,7 +5691,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -5730,7 +5736,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -5783,7 +5789,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -5834,7 +5840,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="37" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5899,7 +5905,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -5963,11 +5969,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -5977,6 +5978,11 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52202DB5-1DF2-4008-9D57-A673DBDC35AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DA30F0-30A6-46E9-BB79-E9AF6F08480F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="575">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1177,55 +1177,580 @@
     <t>  Chicago</t>
   </si>
   <si>
-    <t>Patric41</t>
-  </si>
-  <si>
-    <t>Wilson41</t>
-  </si>
-  <si>
-    <t>ssr44@gmail.com</t>
-  </si>
-  <si>
-    <t>Patric44</t>
-  </si>
-  <si>
-    <t>Wilson44</t>
-  </si>
-  <si>
-    <t>ssr47@gmail.com</t>
-  </si>
-  <si>
-    <t>Event Created By Automation7</t>
-  </si>
-  <si>
-    <t>EventAutomation9</t>
-  </si>
-  <si>
-    <t>http://www.myevents.com/automationevent9878999</t>
-  </si>
-  <si>
     <t>ssr62@gmail.com</t>
   </si>
   <si>
     <t>Patric62</t>
   </si>
   <si>
+    <t>ssr66@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789918</t>
+  </si>
+  <si>
+    <t>Wilson63</t>
+  </si>
+  <si>
     <t>Wilson62</t>
   </si>
   <si>
-    <t>ssr66@gmail.com</t>
-  </si>
-  <si>
-    <t>Patric46</t>
-  </si>
-  <si>
-    <t>Wilson46</t>
-  </si>
-  <si>
-    <t>EventAutomation18</t>
-  </si>
-  <si>
-    <t>http://www.myevents.com/automationevent98789918</t>
+    <t>Patric63</t>
+  </si>
+  <si>
+    <t>Patric64</t>
+  </si>
+  <si>
+    <t>Patric65</t>
+  </si>
+  <si>
+    <t>Patric66</t>
+  </si>
+  <si>
+    <t>Patric67</t>
+  </si>
+  <si>
+    <t>Patric68</t>
+  </si>
+  <si>
+    <t>Patric69</t>
+  </si>
+  <si>
+    <t>Patric70</t>
+  </si>
+  <si>
+    <t>Patric71</t>
+  </si>
+  <si>
+    <t>Patric72</t>
+  </si>
+  <si>
+    <t>Patric73</t>
+  </si>
+  <si>
+    <t>Patric74</t>
+  </si>
+  <si>
+    <t>Patric75</t>
+  </si>
+  <si>
+    <t>Patric76</t>
+  </si>
+  <si>
+    <t>Patric77</t>
+  </si>
+  <si>
+    <t>Patric78</t>
+  </si>
+  <si>
+    <t>Patric79</t>
+  </si>
+  <si>
+    <t>Wilson64</t>
+  </si>
+  <si>
+    <t>Wilson65</t>
+  </si>
+  <si>
+    <t>Wilson66</t>
+  </si>
+  <si>
+    <t>Wilson67</t>
+  </si>
+  <si>
+    <t>Wilson68</t>
+  </si>
+  <si>
+    <t>Wilson69</t>
+  </si>
+  <si>
+    <t>Wilson70</t>
+  </si>
+  <si>
+    <t>Wilson71</t>
+  </si>
+  <si>
+    <t>Wilson72</t>
+  </si>
+  <si>
+    <t>Wilson73</t>
+  </si>
+  <si>
+    <t>Wilson74</t>
+  </si>
+  <si>
+    <t>Wilson75</t>
+  </si>
+  <si>
+    <t>Wilson76</t>
+  </si>
+  <si>
+    <t>Wilson77</t>
+  </si>
+  <si>
+    <t>Wilson78</t>
+  </si>
+  <si>
+    <t>Wilson79</t>
+  </si>
+  <si>
+    <t>ssr63@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr64@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr65@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr67@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr68@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr69@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr70@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr71@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr72@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr73@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr74@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr75@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr76@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr77@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr78@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr79@gmail.com</t>
+  </si>
+  <si>
+    <t>Patric80</t>
+  </si>
+  <si>
+    <t>Wilson80</t>
+  </si>
+  <si>
+    <t>Patric81</t>
+  </si>
+  <si>
+    <t>Wilson81</t>
+  </si>
+  <si>
+    <t>Patric82</t>
+  </si>
+  <si>
+    <t>Wilson82</t>
+  </si>
+  <si>
+    <t>Patric83</t>
+  </si>
+  <si>
+    <t>Wilson83</t>
+  </si>
+  <si>
+    <t>Patric84</t>
+  </si>
+  <si>
+    <t>Wilson84</t>
+  </si>
+  <si>
+    <t>Patric85</t>
+  </si>
+  <si>
+    <t>Wilson85</t>
+  </si>
+  <si>
+    <t>Patric86</t>
+  </si>
+  <si>
+    <t>Wilson86</t>
+  </si>
+  <si>
+    <t>Patric87</t>
+  </si>
+  <si>
+    <t>Wilson87</t>
+  </si>
+  <si>
+    <t>Patric88</t>
+  </si>
+  <si>
+    <t>Wilson88</t>
+  </si>
+  <si>
+    <t>Patric89</t>
+  </si>
+  <si>
+    <t>Wilson89</t>
+  </si>
+  <si>
+    <t>Patric90</t>
+  </si>
+  <si>
+    <t>Wilson90</t>
+  </si>
+  <si>
+    <t>Patric91</t>
+  </si>
+  <si>
+    <t>Wilson91</t>
+  </si>
+  <si>
+    <t>Patric92</t>
+  </si>
+  <si>
+    <t>Wilson92</t>
+  </si>
+  <si>
+    <t>Patric93</t>
+  </si>
+  <si>
+    <t>Wilson93</t>
+  </si>
+  <si>
+    <t>Patric94</t>
+  </si>
+  <si>
+    <t>Wilson94</t>
+  </si>
+  <si>
+    <t>Patric95</t>
+  </si>
+  <si>
+    <t>Wilson95</t>
+  </si>
+  <si>
+    <t>Patric96</t>
+  </si>
+  <si>
+    <t>Wilson96</t>
+  </si>
+  <si>
+    <t>Patric97</t>
+  </si>
+  <si>
+    <t>Wilson97</t>
+  </si>
+  <si>
+    <t>Patric98</t>
+  </si>
+  <si>
+    <t>Wilson98</t>
+  </si>
+  <si>
+    <t>Patric99</t>
+  </si>
+  <si>
+    <t>Wilson99</t>
+  </si>
+  <si>
+    <t>Patric100</t>
+  </si>
+  <si>
+    <t>Wilson100</t>
+  </si>
+  <si>
+    <t>Patric101</t>
+  </si>
+  <si>
+    <t>Wilson101</t>
+  </si>
+  <si>
+    <t>Patric102</t>
+  </si>
+  <si>
+    <t>Wilson102</t>
+  </si>
+  <si>
+    <t>Patric103</t>
+  </si>
+  <si>
+    <t>Wilson103</t>
+  </si>
+  <si>
+    <t>ssr80@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr81@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr82@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr83@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr84@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr85@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr86@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr87@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr88@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr89@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr90@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr91@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr92@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr93@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr94@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr95@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr96@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr97@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr98@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr99@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr100@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr101@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr102@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr103@gmail.com</t>
+  </si>
+  <si>
+    <t>EventAutomation30</t>
+  </si>
+  <si>
+    <t>EventAutomation31</t>
+  </si>
+  <si>
+    <t>EventAutomation32</t>
+  </si>
+  <si>
+    <t>EventAutomation33</t>
+  </si>
+  <si>
+    <t>EventAutomation34</t>
+  </si>
+  <si>
+    <t>EventAutomation35</t>
+  </si>
+  <si>
+    <t>EventAutomation36</t>
+  </si>
+  <si>
+    <t>EventAutomation37</t>
+  </si>
+  <si>
+    <t>EventAutomation38</t>
+  </si>
+  <si>
+    <t>EventAutomation39</t>
+  </si>
+  <si>
+    <t>EventAutomation40</t>
+  </si>
+  <si>
+    <t>EventAutomation41</t>
+  </si>
+  <si>
+    <t>EventAutomation42</t>
+  </si>
+  <si>
+    <t>EventAutomation43</t>
+  </si>
+  <si>
+    <t>EventAutomation44</t>
+  </si>
+  <si>
+    <t>EventAutomation45</t>
+  </si>
+  <si>
+    <t>EventAutomation46</t>
+  </si>
+  <si>
+    <t>EventAutomation47</t>
+  </si>
+  <si>
+    <t>EventAutomation48</t>
+  </si>
+  <si>
+    <t>EventAutomation49</t>
+  </si>
+  <si>
+    <t>EventAutomation50</t>
+  </si>
+  <si>
+    <t>EventAutomation51</t>
+  </si>
+  <si>
+    <t>Event Created By Automation30</t>
+  </si>
+  <si>
+    <t>Event Created By Automation32</t>
+  </si>
+  <si>
+    <t>Event Created By Automation33</t>
+  </si>
+  <si>
+    <t>Event Created By Automation34</t>
+  </si>
+  <si>
+    <t>Event Created By Automation35</t>
+  </si>
+  <si>
+    <t>Event Created By Automation36</t>
+  </si>
+  <si>
+    <t>Event Created By Automation37</t>
+  </si>
+  <si>
+    <t>Event Created By Automation38</t>
+  </si>
+  <si>
+    <t>Event Created By Automation39</t>
+  </si>
+  <si>
+    <t>Event Created By Automation40</t>
+  </si>
+  <si>
+    <t>Event Created By Automation41</t>
+  </si>
+  <si>
+    <t>Event Created By Automation42</t>
+  </si>
+  <si>
+    <t>Event Created By Automation43</t>
+  </si>
+  <si>
+    <t>Event Created By Automation44</t>
+  </si>
+  <si>
+    <t>Event Created By Automation45</t>
+  </si>
+  <si>
+    <t>Event Created By Automation46</t>
+  </si>
+  <si>
+    <t>Event Created By Automation47</t>
+  </si>
+  <si>
+    <t>Event Created By Automation48</t>
+  </si>
+  <si>
+    <t>Event Created By Automation49</t>
+  </si>
+  <si>
+    <t>Event Created By Automation50</t>
+  </si>
+  <si>
+    <t>Event Created By Automation51</t>
+  </si>
+  <si>
+    <t>Event Created By Automation31</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789919</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789920</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789921</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789922</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789923</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789924</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789925</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789926</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789927</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789928</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789929</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789930</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789931</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789932</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789933</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789934</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789935</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789936</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789937</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789938</t>
+  </si>
+  <si>
+    <t>http://www.myevents.com/automationevent98789939</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1435,11 +1960,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1447,23 +1979,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1774,7 +2300,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -1788,7 +2314,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -1948,13 +2474,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="38"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="38"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1967,7 +2493,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2234,7 +2760,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="40"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2267,7 +2793,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="40"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2612,14 +3138,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -2647,13 +3173,13 @@
     </row>
     <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -2681,13 +3207,13 @@
     </row>
     <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -2715,13 +3241,13 @@
     </row>
     <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -2749,13 +3275,13 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -2783,13 +3309,13 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -2817,13 +3343,13 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -2851,13 +3377,13 @@
     </row>
     <row r="51" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -2885,13 +3411,13 @@
     </row>
     <row r="52" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -2919,13 +3445,13 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -2953,13 +3479,13 @@
     </row>
     <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -3021,13 +3547,13 @@
     </row>
     <row r="56" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -3055,13 +3581,13 @@
     </row>
     <row r="57" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -3089,13 +3615,13 @@
     </row>
     <row r="58" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -3123,13 +3649,13 @@
     </row>
     <row r="59" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -3157,13 +3683,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3191,13 +3717,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3225,11 +3751,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3246,6 +3767,11 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3354,7 +3880,7 @@
   <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,14 +3927,14 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>392</v>
+      <c r="A2" s="37" t="s">
+        <v>383</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3424,11 +3950,11 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>385</v>
+      <c r="A3" s="37" t="s">
+        <v>422</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>387</v>
@@ -3462,12 +3988,27 @@
       <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="A4" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -3485,12 +4026,27 @@
       <c r="V4" s="23"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -3509,12 +4065,27 @@
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -3533,12 +4104,27 @@
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -3557,12 +4143,27 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -3581,12 +4182,27 @@
       <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -3605,12 +4221,27 @@
       <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -3628,13 +4259,51 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
     <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="A12" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -3652,12 +4321,27 @@
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
+      <c r="A13" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -3675,12 +4359,27 @@
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3691,12 +4390,27 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="A15" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -3707,12 +4421,27 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -3738,13 +4467,28 @@
       <c r="AD16" s="19"/>
       <c r="AE16" s="16"/>
     </row>
-    <row r="17" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="6"/>
+    <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -3770,7 +4514,53 @@
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
     </row>
-    <row r="20" spans="2:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -3789,7 +4579,7 @@
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -3808,7 +4598,7 @@
       <c r="Q21" s="23"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3827,7 +4617,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3846,7 +4636,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -3865,7 +4655,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3884,7 +4674,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -3903,7 +4693,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -3922,7 +4712,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -3941,7 +4731,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="27"/>
@@ -3960,7 +4750,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="27"/>
@@ -3979,7 +4769,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -3998,7 +4788,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="1"/>
@@ -4264,21 +5054,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{35CA1DAD-660B-453C-9A6E-255AD1E77359}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{EF1677DB-B4E5-415A-B214-1670D5524E0D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,14 +5104,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>395</v>
+      <c r="A2" s="37" t="s">
+        <v>486</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -4344,14 +5130,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>388</v>
+      <c r="A3" s="37" t="s">
+        <v>487</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -4369,11 +5155,580 @@
         <v>382</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{7A72A927-4BAB-4907-BD23-85281E06CB89}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{250C0EFC-F392-4631-82E9-0E13160B607B}"/>
-  </hyperlinks>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4407,16 +5762,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4433,30 +5788,251 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>510</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>390</v>
+        <v>511</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>553</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>391</v>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B11" t="s">
+        <v>540</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>522</v>
+      </c>
+      <c r="B14" t="s">
+        <v>543</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>524</v>
+      </c>
+      <c r="B16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>525</v>
+      </c>
+      <c r="B17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>526</v>
+      </c>
+      <c r="B18" t="s">
+        <v>547</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>527</v>
+      </c>
+      <c r="B19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B20" t="s">
+        <v>549</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>529</v>
+      </c>
+      <c r="B21" t="s">
+        <v>550</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>530</v>
+      </c>
+      <c r="B22" t="s">
+        <v>551</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>531</v>
+      </c>
+      <c r="B23" t="s">
+        <v>552</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{36D916D7-1D27-4018-884C-6B577DE35246}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{619D9C47-A3C4-4E0C-9C2E-028A7877C1AE}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{619D9C47-A3C4-4E0C-9C2E-028A7877C1AE}"/>
+    <hyperlink ref="C3:C23" r:id="rId2" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4483,7 +6059,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -4587,7 +6163,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="6" t="s">
         <v>188</v>
       </c>
@@ -5133,7 +6709,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -5189,7 +6765,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -5258,7 +6834,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>198</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -5290,7 +6866,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="6" t="s">
         <v>203</v>
       </c>
@@ -5333,7 +6909,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="41" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -5376,7 +6952,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -5656,7 +7232,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="41" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -5691,7 +7267,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -5736,7 +7312,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="40" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -5789,7 +7365,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -5840,7 +7416,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="41" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5905,7 +7481,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -5969,6 +7545,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -5978,11 +7559,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DA30F0-30A6-46E9-BB79-E9AF6F08480F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC45376B-3E81-4AFB-AF5B-CE80B179C097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="580">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1751,6 +1751,21 @@
   </si>
   <si>
     <t>http://www.myevents.com/automationevent98789939</t>
+  </si>
+  <si>
+    <t>SearchUserAction</t>
+  </si>
+  <si>
+    <t>Impersonate</t>
+  </si>
+  <si>
+    <t>Edit Role</t>
+  </si>
+  <si>
+    <t>Deactivate</t>
+  </si>
+  <si>
+    <t>Reset Password Link</t>
   </si>
 </sst>
 </file>
@@ -1961,17 +1976,11 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1979,17 +1988,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2300,7 +2315,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2314,7 +2329,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2474,13 +2489,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="42"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="42"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2493,7 +2508,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2760,7 +2775,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="43"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2793,7 +2808,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="43"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3138,14 +3153,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3683,13 +3698,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3717,13 +3732,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3751,6 +3766,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3767,11 +3787,6 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -5063,7 +5078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -5735,23 +5750,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76A90F2-FEBC-495D-96DD-9CDE989D1767}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>363</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="36" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="36" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="36" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -6709,7 +6751,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -6765,7 +6807,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6909,7 +6951,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="38" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6920,7 +6962,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="47" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6952,7 +6994,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6961,7 +7003,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -7001,7 +7043,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="46" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -7022,7 +7064,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="45" t="s">
+      <c r="K33" s="46" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -7042,7 +7084,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -7061,7 +7103,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="46"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -7082,7 +7124,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="46" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -7103,7 +7145,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="46" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -7123,7 +7165,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -7142,7 +7184,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="45"/>
+      <c r="K37" s="46"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -7160,7 +7202,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="47" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -7178,7 +7220,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="45" t="s">
+      <c r="K39" s="46" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -7198,7 +7240,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -7214,7 +7256,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="45"/>
+      <c r="K40" s="46"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -7232,7 +7274,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="38" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -7267,7 +7309,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -7312,7 +7354,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="43" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -7365,7 +7407,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -7416,7 +7458,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="38" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7481,7 +7523,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -7545,11 +7587,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -7559,6 +7596,11 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC45376B-3E81-4AFB-AF5B-CE80B179C097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3DD2A6-AE4F-418D-8B88-A209ECD87D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="574">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1177,12 +1177,6 @@
     <t>  Chicago</t>
   </si>
   <si>
-    <t>ssr62@gmail.com</t>
-  </si>
-  <si>
-    <t>Patric62</t>
-  </si>
-  <si>
     <t>ssr66@gmail.com</t>
   </si>
   <si>
@@ -1192,9 +1186,6 @@
     <t>Wilson63</t>
   </si>
   <si>
-    <t>Wilson62</t>
-  </si>
-  <si>
     <t>Patric63</t>
   </si>
   <si>
@@ -1342,12 +1333,6 @@
     <t>ssr79@gmail.com</t>
   </si>
   <si>
-    <t>Patric80</t>
-  </si>
-  <si>
-    <t>Wilson80</t>
-  </si>
-  <si>
     <t>Patric81</t>
   </si>
   <si>
@@ -1484,9 +1469,6 @@
   </si>
   <si>
     <t>Wilson103</t>
-  </si>
-  <si>
-    <t>ssr80@gmail.com</t>
   </si>
   <si>
     <t>ssr81@gmail.com</t>
@@ -1976,11 +1958,17 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1988,23 +1976,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2315,7 +2297,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2329,7 +2311,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2489,13 +2471,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="38"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="38"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2508,7 +2490,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2775,7 +2757,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="40"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2808,7 +2790,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="40"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3153,14 +3135,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3698,13 +3680,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3732,13 +3714,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3766,11 +3748,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3787,6 +3764,11 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3892,10 +3874,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE47"/>
+  <dimension ref="A1:AE46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3943,13 +3925,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3963,16 +3945,31 @@
       <c r="G2" s="36" t="s">
         <v>382</v>
       </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -3986,31 +3983,31 @@
       <c r="G3" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="23"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4035,20 +4032,21 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="23"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="23"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4081,13 +4079,13 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4120,13 +4118,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4159,13 +4157,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4198,13 +4196,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4237,13 +4235,13 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -4257,32 +4255,16 @@
       <c r="G10" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -4296,16 +4278,31 @@
       <c r="G11" s="36" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -4319,31 +4316,31 @@
       <c r="G12" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="16"/>
-    </row>
-    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>358</v>
@@ -4357,31 +4354,24 @@
       <c r="G13" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>358</v>
@@ -4404,15 +4394,15 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>358</v>
@@ -4426,24 +4416,40 @@
       <c r="G15" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="16"/>
+    </row>
+    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>358</v>
@@ -4457,40 +4463,40 @@
       <c r="G16" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="16"/>
-    </row>
-    <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>358</v>
@@ -4504,40 +4510,16 @@
       <c r="G17" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>358</v>
@@ -4552,68 +4534,64 @@
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>437</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="15"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="23"/>
+      <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -4632,7 +4610,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -4651,15 +4629,15 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -4670,15 +4648,15 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -4689,14 +4667,14 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -4708,7 +4686,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -4727,52 +4705,52 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -4784,41 +4762,41 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="35"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
@@ -4832,7 +4810,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="35"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -4842,40 +4820,40 @@
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="35"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
@@ -4889,7 +4867,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="35"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -4899,54 +4877,54 @@
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="35"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="35"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -4974,7 +4952,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -5020,16 +4998,6 @@
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
@@ -5057,15 +5025,6 @@
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -5076,10 +5035,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5120,13 +5079,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -5146,13 +5105,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -5172,13 +5131,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -5198,13 +5157,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -5224,13 +5183,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -5250,13 +5209,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -5276,13 +5235,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -5302,13 +5261,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -5328,13 +5287,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -5354,13 +5313,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -5380,13 +5339,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -5406,13 +5365,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>358</v>
@@ -5432,13 +5391,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>358</v>
@@ -5458,13 +5417,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>358</v>
@@ -5484,13 +5443,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>358</v>
@@ -5510,13 +5469,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>358</v>
@@ -5536,13 +5495,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>358</v>
@@ -5562,13 +5521,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>358</v>
@@ -5588,13 +5547,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>358</v>
@@ -5614,13 +5573,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>358</v>
@@ -5640,13 +5599,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>358</v>
@@ -5666,13 +5625,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>358</v>
@@ -5692,13 +5651,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>358</v>
@@ -5713,32 +5672,6 @@
         <v>375</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>509</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="H25" s="36" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5752,7 +5685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76A90F2-FEBC-495D-96DD-9CDE989D1767}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -5767,7 +5700,7 @@
         <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5775,25 +5708,25 @@
         <v>363</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="36" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5830,244 +5763,244 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B8" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B9" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B11" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B12" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B13" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B14" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B15" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B16" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B17" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B18" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B19" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B20" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B21" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B22" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B23" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -6751,7 +6684,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -6807,7 +6740,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6951,7 +6884,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="41" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6962,7 +6895,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="46" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6994,7 +6927,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -7003,7 +6936,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="47"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -7043,7 +6976,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="45" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -7064,7 +6997,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="45" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -7084,7 +7017,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -7103,7 +7036,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="46"/>
+      <c r="K34" s="45"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -7124,7 +7057,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="45" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -7145,7 +7078,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="46" t="s">
+      <c r="K36" s="45" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -7165,7 +7098,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -7184,7 +7117,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="46"/>
+      <c r="K37" s="45"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -7202,7 +7135,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="46" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -7220,7 +7153,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="46" t="s">
+      <c r="K39" s="45" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -7240,7 +7173,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -7256,7 +7189,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="46"/>
+      <c r="K40" s="45"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -7274,7 +7207,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="41" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -7309,7 +7242,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -7354,7 +7287,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="40" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -7407,7 +7340,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -7458,7 +7391,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="41" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7523,7 +7456,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -7587,6 +7520,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -7596,11 +7534,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3DD2A6-AE4F-418D-8B88-A209ECD87D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E906E-B82E-4888-B942-375FAEDB0F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="565">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1180,15 +1180,6 @@
     <t>ssr66@gmail.com</t>
   </si>
   <si>
-    <t>http://www.myevents.com/automationevent98789918</t>
-  </si>
-  <si>
-    <t>Wilson63</t>
-  </si>
-  <si>
-    <t>Patric63</t>
-  </si>
-  <si>
     <t>Patric64</t>
   </si>
   <si>
@@ -1285,9 +1276,6 @@
     <t>Wilson79</t>
   </si>
   <si>
-    <t>ssr63@gmail.com</t>
-  </si>
-  <si>
     <t>ssr64@gmail.com</t>
   </si>
   <si>
@@ -1333,12 +1321,6 @@
     <t>ssr79@gmail.com</t>
   </si>
   <si>
-    <t>Patric81</t>
-  </si>
-  <si>
-    <t>Wilson81</t>
-  </si>
-  <si>
     <t>Patric82</t>
   </si>
   <si>
@@ -1471,9 +1453,6 @@
     <t>Wilson103</t>
   </si>
   <si>
-    <t>ssr81@gmail.com</t>
-  </si>
-  <si>
     <t>ssr82@gmail.com</t>
   </si>
   <si>
@@ -1540,9 +1519,6 @@
     <t>ssr103@gmail.com</t>
   </si>
   <si>
-    <t>EventAutomation30</t>
-  </si>
-  <si>
     <t>EventAutomation31</t>
   </si>
   <si>
@@ -1604,9 +1580,6 @@
   </si>
   <si>
     <t>EventAutomation51</t>
-  </si>
-  <si>
-    <t>Event Created By Automation30</t>
   </si>
   <si>
     <t>Event Created By Automation32</t>
@@ -1958,17 +1931,11 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1976,17 +1943,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2297,7 +2270,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2311,7 +2284,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2471,13 +2444,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="42"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="42"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2490,7 +2463,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2757,7 +2730,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="43"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2790,7 +2763,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="43"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3135,14 +3108,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3680,13 +3653,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3714,13 +3687,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3748,6 +3721,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3764,11 +3742,6 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3874,7 +3847,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE46"/>
+  <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -3925,13 +3898,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3945,31 +3918,31 @@
       <c r="G2" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="23"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -3994,20 +3967,21 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="23"/>
+      <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="23"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4040,13 +4014,13 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4079,13 +4053,13 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4118,13 +4092,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4157,13 +4131,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4196,13 +4170,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4216,32 +4190,16 @@
       <c r="G9" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -4255,16 +4213,31 @@
       <c r="G10" s="36" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -4278,31 +4251,31 @@
       <c r="G11" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="16"/>
-    </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -4316,31 +4289,24 @@
       <c r="G12" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>358</v>
@@ -4363,15 +4329,15 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>358</v>
@@ -4385,24 +4351,40 @@
       <c r="G14" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="16"/>
+    </row>
+    <row r="15" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>358</v>
@@ -4416,40 +4398,40 @@
       <c r="G15" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="16"/>
-    </row>
-    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>358</v>
@@ -4463,40 +4445,16 @@
       <c r="G16" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>358</v>
@@ -4511,47 +4469,43 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>434</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
+    <row r="18" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
@@ -4560,16 +4514,16 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="15"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="15"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="23"/>
+      <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -4611,14 +4565,14 @@
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -4630,14 +4584,14 @@
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -4648,14 +4602,14 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -4687,51 +4641,51 @@
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -4744,40 +4698,40 @@
       <c r="R29" s="6"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="35"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
@@ -4791,7 +4745,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="35"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -4801,40 +4755,40 @@
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="35"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
@@ -4848,7 +4802,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="35"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -4858,54 +4812,54 @@
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="35"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="35"/>
+      <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -4933,7 +4887,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
     </row>
-    <row r="40" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -4979,16 +4933,6 @@
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
@@ -5016,15 +4960,6 @@
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -5035,9 +4970,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -5079,13 +5014,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -5105,13 +5040,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -5131,13 +5066,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -5157,13 +5092,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -5183,13 +5118,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -5209,13 +5144,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -5235,13 +5170,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -5261,13 +5196,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -5287,13 +5222,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -5313,13 +5248,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -5339,13 +5274,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -5365,13 +5300,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>358</v>
@@ -5391,13 +5326,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>358</v>
@@ -5417,13 +5352,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>358</v>
@@ -5443,13 +5378,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>358</v>
@@ -5469,13 +5404,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>358</v>
@@ -5495,13 +5430,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>358</v>
@@ -5521,13 +5456,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>358</v>
@@ -5547,13 +5482,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>358</v>
@@ -5573,13 +5508,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>358</v>
@@ -5599,13 +5534,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>358</v>
@@ -5625,13 +5560,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>358</v>
@@ -5646,32 +5581,6 @@
         <v>375</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="H24" s="36" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5700,7 +5609,7 @@
         <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5708,25 +5617,25 @@
         <v>363</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="36" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -5737,10 +5646,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5763,251 +5672,239 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>384</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B6" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B8" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B10" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B11" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B12" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B13" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B14" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B15" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B17" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B18" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B19" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B20" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B21" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B22" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>525</v>
-      </c>
-      <c r="B23" t="s">
-        <v>546</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{619D9C47-A3C4-4E0C-9C2E-028A7877C1AE}"/>
-    <hyperlink ref="C3:C23" r:id="rId2" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
+    <hyperlink ref="C2:C22" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6684,7 +6581,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -6740,7 +6637,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6884,7 +6781,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="38" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6895,7 +6792,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="47" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6927,7 +6824,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6936,7 +6833,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -6976,7 +6873,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="46" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -6997,7 +6894,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="45" t="s">
+      <c r="K33" s="46" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -7017,7 +6914,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -7036,7 +6933,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="46"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -7057,7 +6954,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="46" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -7078,7 +6975,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="46" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -7098,7 +6995,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -7117,7 +7014,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="45"/>
+      <c r="K37" s="46"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -7135,7 +7032,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="47" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -7153,7 +7050,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="45" t="s">
+      <c r="K39" s="46" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -7173,7 +7070,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -7189,7 +7086,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="45"/>
+      <c r="K40" s="46"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -7207,7 +7104,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="38" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -7242,7 +7139,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -7287,7 +7184,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="43" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -7340,7 +7237,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -7391,7 +7288,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="38" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7456,7 +7353,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -7520,11 +7417,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -7534,6 +7426,11 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E906E-B82E-4888-B942-375FAEDB0F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FE3FF3-3343-4671-A7D6-21BD82C4A6C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="559">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1180,9 +1180,6 @@
     <t>ssr66@gmail.com</t>
   </si>
   <si>
-    <t>Patric64</t>
-  </si>
-  <si>
     <t>Patric65</t>
   </si>
   <si>
@@ -1228,9 +1225,6 @@
     <t>Patric79</t>
   </si>
   <si>
-    <t>Wilson64</t>
-  </si>
-  <si>
     <t>Wilson65</t>
   </si>
   <si>
@@ -1276,9 +1270,6 @@
     <t>Wilson79</t>
   </si>
   <si>
-    <t>ssr64@gmail.com</t>
-  </si>
-  <si>
     <t>ssr65@gmail.com</t>
   </si>
   <si>
@@ -1321,12 +1312,6 @@
     <t>ssr79@gmail.com</t>
   </si>
   <si>
-    <t>Patric82</t>
-  </si>
-  <si>
-    <t>Wilson82</t>
-  </si>
-  <si>
     <t>Patric83</t>
   </si>
   <si>
@@ -1451,9 +1436,6 @@
   </si>
   <si>
     <t>Wilson103</t>
-  </si>
-  <si>
-    <t>ssr82@gmail.com</t>
   </si>
   <si>
     <t>ssr83@gmail.com</t>
@@ -1931,11 +1913,17 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1943,23 +1931,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2270,7 +2252,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2284,7 +2266,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2444,13 +2426,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="38"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="38"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2463,7 +2445,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2730,7 +2712,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="40"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2763,7 +2745,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="40"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3108,14 +3090,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3653,13 +3635,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3687,13 +3669,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3721,11 +3703,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3742,6 +3719,11 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3847,7 +3829,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE45"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -3898,13 +3880,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>384</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3929,20 +3911,21 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="23"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
-      <c r="V2" s="23"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>385</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -3975,13 +3958,13 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>386</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4014,13 +3997,13 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>387</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4053,13 +4036,13 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>388</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4092,13 +4075,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>389</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4131,13 +4114,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4151,32 +4134,16 @@
       <c r="G8" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4190,16 +4157,31 @@
       <c r="G9" s="36" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="16"/>
+    </row>
+    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>392</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -4213,31 +4195,31 @@
       <c r="G10" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="16"/>
-    </row>
-    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>393</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -4251,31 +4233,24 @@
       <c r="G11" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>394</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -4298,15 +4273,15 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>395</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>358</v>
@@ -4320,24 +4295,40 @@
       <c r="G13" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="16"/>
+    </row>
+    <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>396</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>358</v>
@@ -4351,40 +4342,40 @@
       <c r="G14" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="16"/>
-    </row>
-    <row r="15" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>397</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>358</v>
@@ -4398,40 +4389,16 @@
       <c r="G15" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>398</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>358</v>
@@ -4446,68 +4413,64 @@
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>430</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="15"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="15"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="23"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -4526,7 +4489,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -4545,15 +4508,15 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -4564,15 +4527,15 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -4583,14 +4546,14 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+    <row r="24" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -4602,7 +4565,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4621,52 +4584,52 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+    <row r="26" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+    <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+    <row r="28" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -4678,45 +4641,45 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+    <row r="29" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+    <row r="30" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -4726,7 +4689,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="35"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -4735,41 +4698,41 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+    <row r="32" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="35"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
@@ -4783,7 +4746,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="35"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -4793,54 +4756,54 @@
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="35"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="35"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -4868,7 +4831,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
-    <row r="39" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4914,16 +4877,6 @@
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
@@ -4951,15 +4904,6 @@
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4970,9 +4914,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -5014,13 +4958,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -5040,13 +4984,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -5066,13 +5010,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -5092,13 +5036,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -5118,13 +5062,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -5144,13 +5088,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -5170,13 +5114,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -5196,13 +5140,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -5222,13 +5166,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -5248,13 +5192,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -5274,13 +5218,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -5300,13 +5244,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>358</v>
@@ -5326,13 +5270,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>358</v>
@@ -5352,13 +5296,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>358</v>
@@ -5378,13 +5322,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>358</v>
@@ -5404,13 +5348,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>358</v>
@@ -5430,13 +5374,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>358</v>
@@ -5456,13 +5400,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>358</v>
@@ -5482,13 +5426,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>358</v>
@@ -5508,13 +5452,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>358</v>
@@ -5534,13 +5478,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>358</v>
@@ -5555,32 +5499,6 @@
         <v>375</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="H23" s="36" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5609,7 +5527,7 @@
         <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5617,25 +5535,25 @@
         <v>363</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="36" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -5648,7 +5566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -5672,233 +5590,233 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B6" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B8" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B9" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B11" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B12" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B13" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B14" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B16" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B17" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B18" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B19" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B20" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B21" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B22" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -6581,7 +6499,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -6637,7 +6555,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6781,7 +6699,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="41" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6792,7 +6710,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="46" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6824,7 +6742,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6833,7 +6751,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="47"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -6873,7 +6791,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="45" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -6894,7 +6812,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="45" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -6914,7 +6832,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -6933,7 +6851,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="46"/>
+      <c r="K34" s="45"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -6954,7 +6872,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="45" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -6975,7 +6893,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="46" t="s">
+      <c r="K36" s="45" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -6995,7 +6913,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -7014,7 +6932,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="46"/>
+      <c r="K37" s="45"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -7032,7 +6950,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="46" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -7050,7 +6968,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="46" t="s">
+      <c r="K39" s="45" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -7070,7 +6988,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -7086,7 +7004,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="46"/>
+      <c r="K40" s="45"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -7104,7 +7022,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="41" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -7139,7 +7057,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -7184,7 +7102,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="40" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -7237,7 +7155,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -7288,7 +7206,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="41" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7353,7 +7271,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -7417,6 +7335,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -7426,11 +7349,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FE3FF3-3343-4671-A7D6-21BD82C4A6C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A225A1AD-545E-41E8-8650-36ADDBFCF420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="552">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1177,18 +1177,6 @@
     <t>  Chicago</t>
   </si>
   <si>
-    <t>ssr66@gmail.com</t>
-  </si>
-  <si>
-    <t>Patric65</t>
-  </si>
-  <si>
-    <t>Patric66</t>
-  </si>
-  <si>
-    <t>Patric67</t>
-  </si>
-  <si>
     <t>Patric68</t>
   </si>
   <si>
@@ -1225,15 +1213,6 @@
     <t>Patric79</t>
   </si>
   <si>
-    <t>Wilson65</t>
-  </si>
-  <si>
-    <t>Wilson66</t>
-  </si>
-  <si>
-    <t>Wilson67</t>
-  </si>
-  <si>
     <t>Wilson68</t>
   </si>
   <si>
@@ -1270,12 +1249,6 @@
     <t>Wilson79</t>
   </si>
   <si>
-    <t>ssr65@gmail.com</t>
-  </si>
-  <si>
-    <t>ssr67@gmail.com</t>
-  </si>
-  <si>
     <t>ssr68@gmail.com</t>
   </si>
   <si>
@@ -1312,12 +1285,6 @@
     <t>ssr79@gmail.com</t>
   </si>
   <si>
-    <t>Patric83</t>
-  </si>
-  <si>
-    <t>Wilson83</t>
-  </si>
-  <si>
     <t>Patric84</t>
   </si>
   <si>
@@ -1438,9 +1405,6 @@
     <t>Wilson103</t>
   </si>
   <si>
-    <t>ssr83@gmail.com</t>
-  </si>
-  <si>
     <t>ssr84@gmail.com</t>
   </si>
   <si>
@@ -1501,9 +1465,6 @@
     <t>ssr103@gmail.com</t>
   </si>
   <si>
-    <t>EventAutomation31</t>
-  </si>
-  <si>
     <t>EventAutomation32</t>
   </si>
   <si>
@@ -1624,12 +1585,6 @@
     <t>Event Created By Automation51</t>
   </si>
   <si>
-    <t>Event Created By Automation31</t>
-  </si>
-  <si>
-    <t>http://www.myevents.com/automationevent98789919</t>
-  </si>
-  <si>
     <t>http://www.myevents.com/automationevent98789920</t>
   </si>
   <si>
@@ -1703,6 +1658,30 @@
   </si>
   <si>
     <t>Reset Password Link</t>
+  </si>
+  <si>
+    <t>Automation4</t>
+  </si>
+  <si>
+    <t>Automation5</t>
+  </si>
+  <si>
+    <t>Automation7</t>
+  </si>
+  <si>
+    <t>Automation6</t>
+  </si>
+  <si>
+    <t>Automation9</t>
+  </si>
+  <si>
+    <t>Automation11</t>
+  </si>
+  <si>
+    <t>Automation8</t>
+  </si>
+  <si>
+    <t>Automation13</t>
   </si>
 </sst>
 </file>
@@ -1913,17 +1892,11 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1931,17 +1904,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2252,7 +2231,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2266,7 +2245,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2426,13 +2405,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="42"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="42"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2445,7 +2424,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2712,7 +2691,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="43"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2745,7 +2724,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="43"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3090,14 +3069,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3635,13 +3614,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3669,13 +3648,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3703,6 +3682,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3719,11 +3703,6 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3738,7 +3717,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3766,10 +3745,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
         <v>374</v>
@@ -3782,24 +3761,48 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3" t="s">
+        <v>546</v>
+      </c>
       <c r="E3" s="36"/>
       <c r="G3" s="36" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B4" t="s">
+        <v>548</v>
+      </c>
       <c r="E4" s="36"/>
       <c r="G4" s="36" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5" t="s">
+        <v>549</v>
+      </c>
       <c r="E5" s="36"/>
       <c r="G5" s="36" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B6" t="s">
+        <v>551</v>
+      </c>
       <c r="E6" s="36"/>
       <c r="G6" s="36" t="s">
         <v>381</v>
@@ -3822,6 +3825,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3829,9 +3833,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3880,13 +3884,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3919,13 +3923,13 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -3958,13 +3962,13 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -3997,13 +4001,13 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4017,32 +4021,16 @@
       <c r="G5" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4056,32 +4044,31 @@
       <c r="G6" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="16"/>
+    </row>
+    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4095,32 +4082,31 @@
       <c r="G7" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4134,16 +4120,24 @@
       <c r="G8" s="36" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4157,31 +4151,24 @@
       <c r="G9" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="16"/>
-    </row>
-    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -4195,31 +4182,40 @@
       <c r="G10" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="16"/>
+    </row>
+    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -4241,16 +4237,32 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -4264,24 +4276,16 @@
       <c r="G12" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>358</v>
@@ -4295,142 +4299,82 @@
       <c r="G13" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="16"/>
-    </row>
-    <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
+    </row>
+    <row r="14" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>382</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>427</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
@@ -4439,27 +4383,27 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="15"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="23"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -4489,14 +4433,14 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+    <row r="21" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -4508,15 +4452,15 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+    <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -4527,33 +4471,33 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+    <row r="23" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -4587,33 +4531,33 @@
     <row r="26" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="35"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="6"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="34"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -4623,13 +4567,13 @@
       <c r="R27" s="6"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -4699,12 +4643,12 @@
       <c r="R31" s="6"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -4737,13 +4681,13 @@
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -4756,35 +4700,35 @@
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
-    <row r="36" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="35"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -4793,7 +4737,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4812,7 +4756,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
-    <row r="38" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4820,16 +4764,6 @@
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
@@ -4839,16 +4773,6 @@
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
@@ -4858,16 +4782,6 @@
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
@@ -4877,33 +4791,6 @@
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4914,9 +4801,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -4958,13 +4845,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -4984,13 +4871,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -5010,13 +4897,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -5036,13 +4923,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -5062,13 +4949,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -5088,13 +4975,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -5114,13 +5001,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -5140,13 +5027,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -5166,13 +5053,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -5192,13 +5079,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -5218,13 +5105,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -5244,13 +5131,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>358</v>
@@ -5270,13 +5157,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>358</v>
@@ -5296,13 +5183,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>358</v>
@@ -5322,13 +5209,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>358</v>
@@ -5348,13 +5235,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>358</v>
@@ -5374,13 +5261,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>358</v>
@@ -5400,13 +5287,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>358</v>
@@ -5426,13 +5313,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>358</v>
@@ -5452,13 +5339,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>358</v>
@@ -5473,32 +5360,6 @@
         <v>375</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>490</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="H22" s="36" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5527,7 +5388,7 @@
         <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5535,25 +5396,25 @@
         <v>363</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="36" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -5564,7 +5425,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -5590,239 +5451,228 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="B8" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B13" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B14" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B15" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B16" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B17" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B18" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B19" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B20" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B21" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>511</v>
-      </c>
-      <c r="B22" t="s">
-        <v>531</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2:C22" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
+    <hyperlink ref="C2:C21" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6499,7 +6349,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -6555,7 +6405,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6699,7 +6549,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="38" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6710,7 +6560,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="47" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6742,7 +6592,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6751,7 +6601,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -6791,7 +6641,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="46" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -6812,7 +6662,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="45" t="s">
+      <c r="K33" s="46" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -6832,7 +6682,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -6851,7 +6701,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="46"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -6872,7 +6722,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="46" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -6893,7 +6743,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="46" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -6913,7 +6763,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -6932,7 +6782,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="45"/>
+      <c r="K37" s="46"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -6950,7 +6800,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="47" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -6968,7 +6818,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="45" t="s">
+      <c r="K39" s="46" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -6988,7 +6838,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -7004,7 +6854,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="45"/>
+      <c r="K40" s="46"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -7022,7 +6872,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="38" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -7057,7 +6907,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -7102,7 +6952,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="43" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -7155,7 +7005,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -7206,7 +7056,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="38" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7271,7 +7121,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -7335,11 +7185,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -7349,6 +7194,11 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A225A1AD-545E-41E8-8650-36ADDBFCF420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1144FE-5E9E-4D70-A7A1-003FB85213E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="CreateNewPage" sheetId="8" r:id="rId2"/>
     <sheet name="CreateUser" sheetId="2" r:id="rId3"/>
-    <sheet name="CreateTeamUser" sheetId="5" r:id="rId4"/>
-    <sheet name="SearchUser" sheetId="6" r:id="rId5"/>
-    <sheet name="NewEventDetails" sheetId="7" r:id="rId6"/>
-    <sheet name="Branch" sheetId="4" r:id="rId7"/>
+    <sheet name="CreateNewForm" sheetId="9" r:id="rId4"/>
+    <sheet name="CreateTeamUser" sheetId="5" r:id="rId5"/>
+    <sheet name="SearchUser" sheetId="6" r:id="rId6"/>
+    <sheet name="NewEventDetails" sheetId="7" r:id="rId7"/>
+    <sheet name="Branch" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="569">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1682,6 +1683,57 @@
   </si>
   <si>
     <t>Automation13</t>
+  </si>
+  <si>
+    <t>FormTitle</t>
+  </si>
+  <si>
+    <t>FormDescription</t>
+  </si>
+  <si>
+    <t>FormSubmissionButtonText</t>
+  </si>
+  <si>
+    <t>FormPageURL</t>
+  </si>
+  <si>
+    <t>AutomationTesting</t>
+  </si>
+  <si>
+    <t>SubmitForm</t>
+  </si>
+  <si>
+    <t>AutoForm</t>
+  </si>
+  <si>
+    <t>EmailLabelNameStep2</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>EmailIsRequire</t>
+  </si>
+  <si>
+    <t>CheckBoxLabelname</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>CheckboxIsRequired</t>
+  </si>
+  <si>
+    <t>CheckboxOption1</t>
+  </si>
+  <si>
+    <t>CheckboxOption2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1892,11 +1944,17 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1904,23 +1962,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2231,7 +2286,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2245,7 +2300,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2405,13 +2460,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="38"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="38"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2424,7 +2479,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2691,7 +2746,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="40"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2724,7 +2779,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="40"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3069,14 +3124,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3614,13 +3669,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3648,13 +3703,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3682,11 +3737,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3703,6 +3753,11 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3835,7 +3890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -4800,6 +4855,96 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2F08CA-A5DE-45FA-A34C-73FA0F2E9E41}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E2" t="s">
+        <v>560</v>
+      </c>
+      <c r="F2" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>563</v>
+      </c>
+      <c r="H2" t="s">
+        <v>567</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -5369,7 +5514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76A90F2-FEBC-495D-96DD-9CDE989D1767}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -5423,7 +5568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -5678,7 +5823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH52"/>
   <sheetViews>
@@ -6349,7 +6494,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -6405,7 +6550,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6549,7 +6694,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="41" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6560,7 +6705,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="46" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6592,7 +6737,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6601,7 +6746,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="47"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -6641,7 +6786,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="45" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -6662,7 +6807,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="45" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -6682,7 +6827,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -6701,7 +6846,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="46"/>
+      <c r="K34" s="45"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -6722,7 +6867,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="45" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -6743,7 +6888,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="46" t="s">
+      <c r="K36" s="45" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -6763,7 +6908,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -6782,7 +6927,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="46"/>
+      <c r="K37" s="45"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -6800,7 +6945,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="46" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -6818,7 +6963,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="46" t="s">
+      <c r="K39" s="45" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -6838,7 +6983,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -6854,7 +6999,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="46"/>
+      <c r="K40" s="45"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -6872,7 +7017,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="41" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -6907,7 +7052,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -6952,7 +7097,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="40" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -7005,7 +7150,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -7056,7 +7201,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="41" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7121,7 +7266,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -7185,6 +7330,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -7194,11 +7344,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1144FE-5E9E-4D70-A7A1-003FB85213E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A8141-7771-4ACE-9F2C-5AC42004D2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="NewEventDetails" sheetId="7" r:id="rId7"/>
     <sheet name="Branch" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="570">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1151,12 +1151,6 @@
     <t>Automation2</t>
   </si>
   <si>
-    <t>/Auto2mation</t>
-  </si>
-  <si>
-    <t>TestAutomation2</t>
-  </si>
-  <si>
     <t>LinkedPageType</t>
   </si>
   <si>
@@ -1178,12 +1172,6 @@
     <t>  Chicago</t>
   </si>
   <si>
-    <t>Patric68</t>
-  </si>
-  <si>
-    <t>Patric69</t>
-  </si>
-  <si>
     <t>Patric70</t>
   </si>
   <si>
@@ -1214,12 +1202,6 @@
     <t>Patric79</t>
   </si>
   <si>
-    <t>Wilson68</t>
-  </si>
-  <si>
-    <t>Wilson69</t>
-  </si>
-  <si>
     <t>Wilson70</t>
   </si>
   <si>
@@ -1250,12 +1232,6 @@
     <t>Wilson79</t>
   </si>
   <si>
-    <t>ssr68@gmail.com</t>
-  </si>
-  <si>
-    <t>ssr69@gmail.com</t>
-  </si>
-  <si>
     <t>ssr70@gmail.com</t>
   </si>
   <si>
@@ -1286,18 +1262,6 @@
     <t>ssr79@gmail.com</t>
   </si>
   <si>
-    <t>Patric84</t>
-  </si>
-  <si>
-    <t>Wilson84</t>
-  </si>
-  <si>
-    <t>Patric85</t>
-  </si>
-  <si>
-    <t>Wilson85</t>
-  </si>
-  <si>
     <t>Patric86</t>
   </si>
   <si>
@@ -1406,12 +1370,6 @@
     <t>Wilson103</t>
   </si>
   <si>
-    <t>ssr84@gmail.com</t>
-  </si>
-  <si>
-    <t>ssr85@gmail.com</t>
-  </si>
-  <si>
     <t>ssr86@gmail.com</t>
   </si>
   <si>
@@ -1466,12 +1424,6 @@
     <t>ssr103@gmail.com</t>
   </si>
   <si>
-    <t>EventAutomation32</t>
-  </si>
-  <si>
-    <t>EventAutomation33</t>
-  </si>
-  <si>
     <t>EventAutomation34</t>
   </si>
   <si>
@@ -1526,12 +1478,6 @@
     <t>EventAutomation51</t>
   </si>
   <si>
-    <t>Event Created By Automation32</t>
-  </si>
-  <si>
-    <t>Event Created By Automation33</t>
-  </si>
-  <si>
     <t>Event Created By Automation34</t>
   </si>
   <si>
@@ -1586,12 +1532,6 @@
     <t>Event Created By Automation51</t>
   </si>
   <si>
-    <t>http://www.myevents.com/automationevent98789920</t>
-  </si>
-  <si>
-    <t>http://www.myevents.com/automationevent98789921</t>
-  </si>
-  <si>
     <t>http://www.myevents.com/automationevent98789922</t>
   </si>
   <si>
@@ -1661,9 +1601,6 @@
     <t>Reset Password Link</t>
   </si>
   <si>
-    <t>Automation4</t>
-  </si>
-  <si>
     <t>Automation5</t>
   </si>
   <si>
@@ -1734,6 +1671,72 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>TestAutomation3</t>
+  </si>
+  <si>
+    <t>TestAutomation4</t>
+  </si>
+  <si>
+    <t>TestAutomation5</t>
+  </si>
+  <si>
+    <t>TestAutomation6</t>
+  </si>
+  <si>
+    <t>TestAutomation7</t>
+  </si>
+  <si>
+    <t>TestAutomation8</t>
+  </si>
+  <si>
+    <t>TestAutomation9</t>
+  </si>
+  <si>
+    <t>TestAutomation10</t>
+  </si>
+  <si>
+    <t>TestAutomation11</t>
+  </si>
+  <si>
+    <t>TestAutomation12</t>
+  </si>
+  <si>
+    <t>TestAutomation13</t>
+  </si>
+  <si>
+    <t>TestAutomation14</t>
+  </si>
+  <si>
+    <t>TestAutomation15</t>
+  </si>
+  <si>
+    <t>TestAutomation16</t>
+  </si>
+  <si>
+    <t>TestAutomation17</t>
+  </si>
+  <si>
+    <t>TestAutomation18</t>
+  </si>
+  <si>
+    <t>TestAutomation19</t>
+  </si>
+  <si>
+    <t>TestAutomation20</t>
+  </si>
+  <si>
+    <t>/Auto6mation7</t>
+  </si>
+  <si>
+    <t>/Auto6mation8</t>
+  </si>
+  <si>
+    <t>/Auto6mation9</t>
+  </si>
+  <si>
+    <t>/Auto6mation10</t>
   </si>
 </sst>
 </file>
@@ -1944,6 +1947,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1973,9 +1979,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2286,7 +2289,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2300,7 +2303,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2460,13 +2463,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2479,7 +2482,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2746,7 +2749,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="41"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2779,7 +2782,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="41"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3124,14 +3127,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3159,13 +3162,13 @@
     </row>
     <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -3193,13 +3196,13 @@
     </row>
     <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -3227,13 +3230,13 @@
     </row>
     <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -3261,13 +3264,13 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -3295,13 +3298,13 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -3329,13 +3332,13 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -3363,13 +3366,13 @@
     </row>
     <row r="51" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -3397,13 +3400,13 @@
     </row>
     <row r="52" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -3431,13 +3434,13 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -3465,13 +3468,13 @@
     </row>
     <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -3533,13 +3536,13 @@
     </row>
     <row r="56" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -3567,13 +3570,13 @@
     </row>
     <row r="57" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -3601,13 +3604,13 @@
     </row>
     <row r="58" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -3635,13 +3638,13 @@
     </row>
     <row r="59" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -3669,13 +3672,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3703,13 +3706,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3772,14 +3775,13 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3800,13 +3802,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="B2" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>566</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>372</v>
@@ -3817,50 +3819,53 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="B3" t="s">
-        <v>546</v>
+        <v>527</v>
+      </c>
+      <c r="C3" t="s">
+        <v>567</v>
       </c>
       <c r="E3" s="36"/>
       <c r="G3" s="36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="B4" t="s">
-        <v>548</v>
+        <v>528</v>
+      </c>
+      <c r="C4" t="s">
+        <v>568</v>
       </c>
       <c r="E4" s="36"/>
       <c r="G4" s="36" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="B5" t="s">
-        <v>549</v>
+        <v>530</v>
+      </c>
+      <c r="C5" t="s">
+        <v>569</v>
       </c>
       <c r="E5" s="36"/>
       <c r="G5" s="36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B6" t="s">
-        <v>551</v>
-      </c>
       <c r="E6" s="36"/>
       <c r="G6" s="36" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3868,7 +3873,7 @@
         <v>368</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3876,7 +3881,7 @@
         <v>373</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3888,7 +3893,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE41"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -3939,13 +3944,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3957,7 +3962,7 @@
         <v>360</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -3978,13 +3983,13 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -3996,34 +4001,18 @@
         <v>360</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4035,34 +4024,33 @@
         <v>360</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4074,18 +4062,33 @@
         <v>360</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4097,33 +4100,26 @@
         <v>360</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="16"/>
-    </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4135,33 +4131,26 @@
         <v>360</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4173,26 +4162,42 @@
         <v>360</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="16"/>
+    </row>
+    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4204,7 +4209,7 @@
         <v>360</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -4214,16 +4219,32 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -4235,42 +4256,18 @@
         <v>360</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="16"/>
-    </row>
-    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -4282,97 +4279,65 @@
         <v>360</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>382</v>
-      </c>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
@@ -4381,16 +4346,16 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="15"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="15"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="23"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4413,14 +4378,14 @@
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -4450,15 +4415,15 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+    <row r="19" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -4469,14 +4434,14 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+    <row r="20" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -4489,32 +4454,32 @@
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -4527,54 +4492,54 @@
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="35"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -4584,40 +4549,40 @@
       <c r="R25" s="6"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
@@ -4631,7 +4596,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="K28" s="35"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -4641,40 +4606,40 @@
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
@@ -4688,7 +4653,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="K31" s="35"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -4698,35 +4663,35 @@
       <c r="R31" s="6"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="35"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -4735,7 +4700,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4754,7 +4719,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4781,16 +4746,6 @@
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
@@ -4800,16 +4755,6 @@
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
@@ -4828,24 +4773,6 @@
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4858,8 +4785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2F08CA-A5DE-45FA-A34C-73FA0F2E9E41}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4876,63 +4803,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="B2" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="C2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="D2" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="E2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F2" s="48" t="b">
+        <v>539</v>
+      </c>
+      <c r="F2" s="38" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="H2" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -4946,7 +4873,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -4990,13 +4917,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -5008,21 +4935,21 @@
         <v>360</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>375</v>
+        <v>548</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -5034,21 +4961,21 @@
         <v>360</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>375</v>
+        <v>549</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -5060,21 +4987,21 @@
         <v>360</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -5086,21 +5013,21 @@
         <v>360</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>375</v>
+        <v>551</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -5112,21 +5039,21 @@
         <v>360</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>375</v>
+        <v>552</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -5138,21 +5065,21 @@
         <v>360</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>375</v>
+        <v>553</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -5164,21 +5091,21 @@
         <v>360</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>375</v>
+        <v>554</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -5190,21 +5117,21 @@
         <v>360</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>375</v>
+        <v>555</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -5216,21 +5143,21 @@
         <v>360</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -5242,21 +5169,21 @@
         <v>360</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>375</v>
+        <v>557</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -5268,21 +5195,21 @@
         <v>360</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>375</v>
+        <v>558</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>358</v>
@@ -5294,21 +5221,21 @@
         <v>360</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>375</v>
+        <v>559</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>358</v>
@@ -5320,21 +5247,21 @@
         <v>360</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>375</v>
+        <v>560</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>358</v>
@@ -5346,21 +5273,21 @@
         <v>360</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>375</v>
+        <v>561</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>358</v>
@@ -5372,21 +5299,21 @@
         <v>360</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>375</v>
+        <v>562</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>358</v>
@@ -5398,21 +5325,21 @@
         <v>360</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>375</v>
+        <v>563</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>358</v>
@@ -5424,21 +5351,21 @@
         <v>360</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>375</v>
+        <v>564</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>358</v>
@@ -5450,62 +5377,10 @@
         <v>360</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>375</v>
+        <v>565</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>477</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -5533,7 +5408,7 @@
         <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5541,25 +5416,25 @@
         <v>363</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="36" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5570,9 +5445,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -5596,228 +5471,206 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B10" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B12" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B13" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B14" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B15" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B16" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B19" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>497</v>
-      </c>
-      <c r="B20" t="s">
-        <v>517</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>498</v>
-      </c>
-      <c r="B21" t="s">
         <v>518</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2:C21" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
+    <hyperlink ref="C2:C19" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5844,7 +5697,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -5948,7 +5801,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="6" t="s">
         <v>188</v>
       </c>
@@ -6494,7 +6347,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -6550,7 +6403,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6619,7 +6472,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="45" t="s">
         <v>198</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -6651,7 +6504,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="6" t="s">
         <v>203</v>
       </c>
@@ -6694,7 +6547,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6705,7 +6558,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="47" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6737,7 +6590,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6746,7 +6599,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -6786,7 +6639,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="46" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -6807,7 +6660,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="45" t="s">
+      <c r="K33" s="46" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -6827,7 +6680,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -6846,7 +6699,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="46"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -6867,7 +6720,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="46" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -6888,7 +6741,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="46" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -6908,7 +6761,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -6927,7 +6780,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="45"/>
+      <c r="K37" s="46"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -6945,7 +6798,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="47" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -6963,7 +6816,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="45" t="s">
+      <c r="K39" s="46" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -6983,7 +6836,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -6999,7 +6852,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="45"/>
+      <c r="K40" s="46"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -7017,7 +6870,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="42" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -7052,7 +6905,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -7097,7 +6950,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="41" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -7150,7 +7003,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -7201,7 +7054,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="42" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7266,7 +7119,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A8141-7771-4ACE-9F2C-5AC42004D2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAF3DFD-01E5-49B0-8AD3-F4C1A6321A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="563">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1172,9 +1172,6 @@
     <t>  Chicago</t>
   </si>
   <si>
-    <t>Patric70</t>
-  </si>
-  <si>
     <t>Patric71</t>
   </si>
   <si>
@@ -1202,9 +1199,6 @@
     <t>Patric79</t>
   </si>
   <si>
-    <t>Wilson70</t>
-  </si>
-  <si>
     <t>Wilson71</t>
   </si>
   <si>
@@ -1232,9 +1226,6 @@
     <t>Wilson79</t>
   </si>
   <si>
-    <t>ssr70@gmail.com</t>
-  </si>
-  <si>
     <t>ssr71@gmail.com</t>
   </si>
   <si>
@@ -1262,12 +1253,6 @@
     <t>ssr79@gmail.com</t>
   </si>
   <si>
-    <t>Patric86</t>
-  </si>
-  <si>
-    <t>Wilson86</t>
-  </si>
-  <si>
     <t>Patric87</t>
   </si>
   <si>
@@ -1370,9 +1355,6 @@
     <t>Wilson103</t>
   </si>
   <si>
-    <t>ssr86@gmail.com</t>
-  </si>
-  <si>
     <t>ssr87@gmail.com</t>
   </si>
   <si>
@@ -1424,9 +1406,6 @@
     <t>ssr103@gmail.com</t>
   </si>
   <si>
-    <t>EventAutomation34</t>
-  </si>
-  <si>
     <t>EventAutomation35</t>
   </si>
   <si>
@@ -1478,9 +1457,6 @@
     <t>EventAutomation51</t>
   </si>
   <si>
-    <t>Event Created By Automation34</t>
-  </si>
-  <si>
     <t>Event Created By Automation35</t>
   </si>
   <si>
@@ -1532,9 +1508,6 @@
     <t>Event Created By Automation51</t>
   </si>
   <si>
-    <t>http://www.myevents.com/automationevent98789922</t>
-  </si>
-  <si>
     <t>http://www.myevents.com/automationevent98789923</t>
   </si>
   <si>
@@ -1601,9 +1574,6 @@
     <t>Reset Password Link</t>
   </si>
   <si>
-    <t>Automation5</t>
-  </si>
-  <si>
     <t>Automation7</t>
   </si>
   <si>
@@ -1673,9 +1643,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>TestAutomation3</t>
-  </si>
-  <si>
     <t>TestAutomation4</t>
   </si>
   <si>
@@ -1727,9 +1694,6 @@
     <t>TestAutomation20</t>
   </si>
   <si>
-    <t>/Auto6mation7</t>
-  </si>
-  <si>
     <t>/Auto6mation8</t>
   </si>
   <si>
@@ -1737,6 +1701,21 @@
   </si>
   <si>
     <t>/Auto6mation10</t>
+  </si>
+  <si>
+    <t>Automation15</t>
+  </si>
+  <si>
+    <t>/Auto6mation11</t>
+  </si>
+  <si>
+    <t>Automation10</t>
+  </si>
+  <si>
+    <t>Automation17</t>
+  </si>
+  <si>
+    <t>/Auto6mation12</t>
   </si>
 </sst>
 </file>
@@ -1950,17 +1929,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1968,17 +1941,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2289,7 +2268,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2303,7 +2282,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2463,13 +2442,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="43"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="43"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2482,7 +2461,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2749,7 +2728,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="44"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2782,7 +2761,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+      <c r="A33" s="44"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3127,14 +3106,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3672,13 +3651,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3706,13 +3685,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3740,6 +3719,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3756,11 +3740,6 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3775,7 +3754,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3802,13 +3781,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C2" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>372</v>
@@ -3819,13 +3798,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C3" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="E3" s="36"/>
       <c r="G3" s="36" t="s">
@@ -3834,13 +3813,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B4" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C4" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="E4" s="36"/>
       <c r="G4" s="36" t="s">
@@ -3849,13 +3828,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B5" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="C5" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="E5" s="36"/>
       <c r="G5" s="36" t="s">
@@ -3863,6 +3842,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" t="s">
+        <v>562</v>
+      </c>
       <c r="E6" s="36"/>
       <c r="G6" s="36" t="s">
         <v>379</v>
@@ -3893,7 +3881,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE39"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -3944,13 +3932,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>381</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3964,32 +3952,16 @@
       <c r="G2" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>382</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -4003,16 +3975,31 @@
       <c r="G3" s="36" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>383</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4026,31 +4013,31 @@
       <c r="G4" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="16"/>
-    </row>
-    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>384</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4064,31 +4051,24 @@
       <c r="G5" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>385</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4111,15 +4091,15 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>386</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4133,24 +4113,40 @@
       <c r="G7" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="16"/>
+    </row>
+    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>387</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4164,40 +4160,40 @@
       <c r="G8" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="16"/>
-    </row>
-    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>388</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4211,40 +4207,16 @@
       <c r="G9" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>389</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -4259,47 +4231,43 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+    <row r="11" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
@@ -4308,16 +4276,16 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="15"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="23"/>
+      <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -4359,14 +4327,14 @@
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -4378,14 +4346,14 @@
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -4396,14 +4364,14 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+    <row r="18" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -4435,51 +4403,51 @@
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -4492,40 +4460,40 @@
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="35"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
@@ -4539,7 +4507,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="35"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -4549,40 +4517,40 @@
       <c r="R25" s="6"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
@@ -4596,7 +4564,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="35"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -4606,54 +4574,54 @@
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="35"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -4681,7 +4649,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -4727,16 +4695,6 @@
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
@@ -4764,15 +4722,6 @@
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4803,63 +4752,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C2" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D2" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="E2" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F2" s="38" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H2" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -4873,7 +4822,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -4917,13 +4866,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -4935,7 +4884,7 @@
         <v>360</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>380</v>
@@ -4943,13 +4892,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -4961,7 +4910,7 @@
         <v>360</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>380</v>
@@ -4969,13 +4918,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4987,7 +4936,7 @@
         <v>360</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>380</v>
@@ -4995,13 +4944,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -5013,7 +4962,7 @@
         <v>360</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>380</v>
@@ -5021,13 +4970,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -5039,7 +4988,7 @@
         <v>360</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>380</v>
@@ -5047,13 +4996,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -5065,7 +5014,7 @@
         <v>360</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>380</v>
@@ -5073,13 +5022,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -5091,7 +5040,7 @@
         <v>360</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>380</v>
@@ -5099,13 +5048,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -5117,7 +5066,7 @@
         <v>360</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>380</v>
@@ -5125,13 +5074,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -5143,7 +5092,7 @@
         <v>360</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>380</v>
@@ -5151,13 +5100,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -5169,7 +5118,7 @@
         <v>360</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>380</v>
@@ -5177,13 +5126,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -5195,7 +5144,7 @@
         <v>360</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>380</v>
@@ -5203,13 +5152,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>358</v>
@@ -5221,7 +5170,7 @@
         <v>360</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>380</v>
@@ -5229,13 +5178,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>358</v>
@@ -5247,7 +5196,7 @@
         <v>360</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>380</v>
@@ -5255,13 +5204,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>358</v>
@@ -5273,7 +5222,7 @@
         <v>360</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>380</v>
@@ -5281,13 +5230,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>358</v>
@@ -5299,7 +5248,7 @@
         <v>360</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>380</v>
@@ -5307,13 +5256,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>358</v>
@@ -5325,7 +5274,7 @@
         <v>360</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>380</v>
@@ -5333,13 +5282,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>358</v>
@@ -5351,35 +5300,9 @@
         <v>360</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="H19" s="36" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5408,7 +5331,7 @@
         <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5416,25 +5339,25 @@
         <v>363</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="36" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5445,10 +5368,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5471,206 +5394,195 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B14" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B15" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B16" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B17" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B18" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>482</v>
-      </c>
-      <c r="B19" t="s">
-        <v>500</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2:C19" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
+    <hyperlink ref="C2:C18" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6347,7 +6259,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -6403,7 +6315,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6547,7 +6459,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="39" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6558,7 +6470,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="48" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6590,7 +6502,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6599,7 +6511,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="47"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -6639,7 +6551,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="47" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -6660,7 +6572,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="47" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -6680,7 +6592,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -6699,7 +6611,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="46"/>
+      <c r="K34" s="47"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -6720,7 +6632,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="47" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -6741,7 +6653,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="46" t="s">
+      <c r="K36" s="47" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -6761,7 +6673,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -6780,7 +6692,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="46"/>
+      <c r="K37" s="47"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -6798,7 +6710,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="48" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -6816,7 +6728,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="46" t="s">
+      <c r="K39" s="47" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -6836,7 +6748,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -6852,7 +6764,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="46"/>
+      <c r="K40" s="47"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -6870,7 +6782,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="39" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -6905,7 +6817,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -6950,7 +6862,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="44" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -7003,7 +6915,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -7054,7 +6966,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="39" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7119,7 +7031,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -7183,11 +7095,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -7197,6 +7104,11 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAF3DFD-01E5-49B0-8AD3-F4C1A6321A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFF2785-A12C-4FE1-934D-46302610BBBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="557">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1172,9 +1172,6 @@
     <t>  Chicago</t>
   </si>
   <si>
-    <t>Patric71</t>
-  </si>
-  <si>
     <t>Patric72</t>
   </si>
   <si>
@@ -1199,9 +1196,6 @@
     <t>Patric79</t>
   </si>
   <si>
-    <t>Wilson71</t>
-  </si>
-  <si>
     <t>Wilson72</t>
   </si>
   <si>
@@ -1226,9 +1220,6 @@
     <t>Wilson79</t>
   </si>
   <si>
-    <t>ssr71@gmail.com</t>
-  </si>
-  <si>
     <t>ssr72@gmail.com</t>
   </si>
   <si>
@@ -1253,12 +1244,6 @@
     <t>ssr79@gmail.com</t>
   </si>
   <si>
-    <t>Patric87</t>
-  </si>
-  <si>
-    <t>Wilson87</t>
-  </si>
-  <si>
     <t>Patric88</t>
   </si>
   <si>
@@ -1355,9 +1340,6 @@
     <t>Wilson103</t>
   </si>
   <si>
-    <t>ssr87@gmail.com</t>
-  </si>
-  <si>
     <t>ssr88@gmail.com</t>
   </si>
   <si>
@@ -1610,9 +1592,6 @@
     <t>SubmitForm</t>
   </si>
   <si>
-    <t>AutoForm</t>
-  </si>
-  <si>
     <t>EmailLabelNameStep2</t>
   </si>
   <si>
@@ -1643,9 +1622,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>TestAutomation4</t>
-  </si>
-  <si>
     <t>TestAutomation5</t>
   </si>
   <si>
@@ -1716,6 +1692,12 @@
   </si>
   <si>
     <t>/Auto6mation12</t>
+  </si>
+  <si>
+    <t>AutomationTesting12</t>
+  </si>
+  <si>
+    <t>AutoForm12</t>
   </si>
 </sst>
 </file>
@@ -3781,13 +3763,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>372</v>
@@ -3798,13 +3780,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C3" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="E3" s="36"/>
       <c r="G3" s="36" t="s">
@@ -3813,13 +3795,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C4" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E4" s="36"/>
       <c r="G4" s="36" t="s">
@@ -3828,13 +3810,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C5" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E5" s="36"/>
       <c r="G5" s="36" t="s">
@@ -3843,13 +3825,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B6" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C6" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E6" s="36"/>
       <c r="G6" s="36" t="s">
@@ -3881,7 +3863,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -3930,15 +3912,15 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>381</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3952,16 +3934,31 @@
       <c r="G2" s="36" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>382</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -3975,31 +3972,31 @@
       <c r="G3" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="16"/>
-    </row>
-    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>383</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4013,31 +4010,24 @@
       <c r="G4" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>384</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4060,15 +4050,15 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>385</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4082,24 +4072,40 @@
       <c r="G6" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="16"/>
+    </row>
+    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>386</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4113,40 +4119,40 @@
       <c r="G7" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="16"/>
-    </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>387</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4160,40 +4166,16 @@
       <c r="G8" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>388</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4208,47 +4190,43 @@
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+    <row r="10" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
@@ -4257,16 +4235,16 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="23"/>
+      <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -4308,14 +4286,14 @@
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -4327,14 +4305,14 @@
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -4345,14 +4323,14 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+    <row r="17" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -4384,51 +4362,51 @@
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -4441,40 +4419,40 @@
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
@@ -4488,7 +4466,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="35"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -4498,40 +4476,40 @@
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
@@ -4545,7 +4523,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="35"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -4555,54 +4533,54 @@
       <c r="R27" s="6"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="35"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -4630,7 +4608,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -4676,16 +4654,6 @@
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
@@ -4713,15 +4681,6 @@
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4734,8 +4693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2F08CA-A5DE-45FA-A34C-73FA0F2E9E41}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4752,63 +4711,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D2" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="E2" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F2" s="38" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -4822,7 +4781,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -4866,13 +4825,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -4884,7 +4843,7 @@
         <v>360</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>380</v>
@@ -4892,13 +4851,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -4910,7 +4869,7 @@
         <v>360</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>380</v>
@@ -4918,13 +4877,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4936,7 +4895,7 @@
         <v>360</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>380</v>
@@ -4944,13 +4903,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4962,7 +4921,7 @@
         <v>360</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>380</v>
@@ -4970,13 +4929,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4988,7 +4947,7 @@
         <v>360</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>380</v>
@@ -4996,13 +4955,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -5014,7 +4973,7 @@
         <v>360</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>380</v>
@@ -5022,13 +4981,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -5040,7 +4999,7 @@
         <v>360</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>380</v>
@@ -5048,13 +5007,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -5066,7 +5025,7 @@
         <v>360</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>380</v>
@@ -5074,13 +5033,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -5092,7 +5051,7 @@
         <v>360</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>380</v>
@@ -5100,13 +5059,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -5118,7 +5077,7 @@
         <v>360</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>380</v>
@@ -5126,13 +5085,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -5144,7 +5103,7 @@
         <v>360</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>380</v>
@@ -5152,13 +5111,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>358</v>
@@ -5170,7 +5129,7 @@
         <v>360</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>380</v>
@@ -5178,13 +5137,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>358</v>
@@ -5196,7 +5155,7 @@
         <v>360</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>380</v>
@@ -5204,13 +5163,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>358</v>
@@ -5222,7 +5181,7 @@
         <v>360</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>380</v>
@@ -5230,13 +5189,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>358</v>
@@ -5248,7 +5207,7 @@
         <v>360</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>380</v>
@@ -5256,13 +5215,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>358</v>
@@ -5274,35 +5233,9 @@
         <v>360</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="H18" s="36" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5331,7 +5264,7 @@
         <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5339,25 +5272,25 @@
         <v>363</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="36" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -5370,7 +5303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5394,189 +5327,189 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B8" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B14" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B16" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B17" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B18" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFF2785-A12C-4FE1-934D-46302610BBBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6373C28D-FE5A-4CFE-A2A2-C0A7CBC28220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="539">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1172,9 +1172,6 @@
     <t>  Chicago</t>
   </si>
   <si>
-    <t>Patric72</t>
-  </si>
-  <si>
     <t>Patric73</t>
   </si>
   <si>
@@ -1196,9 +1193,6 @@
     <t>Patric79</t>
   </si>
   <si>
-    <t>Wilson72</t>
-  </si>
-  <si>
     <t>Wilson73</t>
   </si>
   <si>
@@ -1220,9 +1214,6 @@
     <t>Wilson79</t>
   </si>
   <si>
-    <t>ssr72@gmail.com</t>
-  </si>
-  <si>
     <t>ssr73@gmail.com</t>
   </si>
   <si>
@@ -1244,24 +1235,6 @@
     <t>ssr79@gmail.com</t>
   </si>
   <si>
-    <t>Patric88</t>
-  </si>
-  <si>
-    <t>Wilson88</t>
-  </si>
-  <si>
-    <t>Patric89</t>
-  </si>
-  <si>
-    <t>Wilson89</t>
-  </si>
-  <si>
-    <t>Patric90</t>
-  </si>
-  <si>
-    <t>Wilson90</t>
-  </si>
-  <si>
     <t>Patric91</t>
   </si>
   <si>
@@ -1340,15 +1313,6 @@
     <t>Wilson103</t>
   </si>
   <si>
-    <t>ssr88@gmail.com</t>
-  </si>
-  <si>
-    <t>ssr89@gmail.com</t>
-  </si>
-  <si>
-    <t>ssr90@gmail.com</t>
-  </si>
-  <si>
     <t>ssr91@gmail.com</t>
   </si>
   <si>
@@ -1388,9 +1352,6 @@
     <t>ssr103@gmail.com</t>
   </si>
   <si>
-    <t>EventAutomation35</t>
-  </si>
-  <si>
     <t>EventAutomation36</t>
   </si>
   <si>
@@ -1439,9 +1400,6 @@
     <t>EventAutomation51</t>
   </si>
   <si>
-    <t>Event Created By Automation35</t>
-  </si>
-  <si>
     <t>Event Created By Automation36</t>
   </si>
   <si>
@@ -1490,9 +1448,6 @@
     <t>Event Created By Automation51</t>
   </si>
   <si>
-    <t>http://www.myevents.com/automationevent98789923</t>
-  </si>
-  <si>
     <t>http://www.myevents.com/automationevent98789924</t>
   </si>
   <si>
@@ -1620,15 +1575,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>TestAutomation5</t>
-  </si>
-  <si>
-    <t>TestAutomation6</t>
-  </si>
-  <si>
-    <t>TestAutomation7</t>
   </si>
   <si>
     <t>TestAutomation8</t>
@@ -3736,7 +3682,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3763,13 +3709,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="C2" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>372</v>
@@ -3780,13 +3726,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="C3" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="E3" s="36"/>
       <c r="G3" s="36" t="s">
@@ -3795,13 +3741,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="C4" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="E4" s="36"/>
       <c r="G4" s="36" t="s">
@@ -3810,13 +3756,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="C5" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="E5" s="36"/>
       <c r="G5" s="36" t="s">
@@ -3825,13 +3771,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B6" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="C6" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="E6" s="36"/>
       <c r="G6" s="36" t="s">
@@ -3863,7 +3809,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -3912,15 +3858,15 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>381</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3934,31 +3880,31 @@
       <c r="G2" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="16"/>
-    </row>
-    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>382</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -3972,31 +3918,24 @@
       <c r="G3" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>383</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4019,15 +3958,15 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>384</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4041,24 +3980,40 @@
       <c r="G5" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="16"/>
+    </row>
+    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>385</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4072,40 +4027,40 @@
       <c r="G6" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="16"/>
-    </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>386</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4119,40 +4074,16 @@
       <c r="G7" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>387</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4167,47 +4098,43 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>404</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
+    <row r="9" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
@@ -4216,16 +4143,16 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="15"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="15"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="23"/>
+      <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4267,14 +4194,14 @@
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -4286,14 +4213,14 @@
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -4304,14 +4231,14 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -4343,51 +4270,51 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -4400,40 +4327,40 @@
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
@@ -4447,7 +4374,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="35"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -4457,40 +4384,40 @@
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="35"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
@@ -4504,7 +4431,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="35"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -4514,54 +4441,54 @@
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="35"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -4589,7 +4516,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -4627,7 +4554,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -4635,18 +4562,8 @@
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4655,7 +4572,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4664,7 +4581,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4672,15 +4589,6 @@
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4693,7 +4601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2F08CA-A5DE-45FA-A34C-73FA0F2E9E41}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4711,63 +4619,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D2" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="E2" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="F2" s="38" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="H2" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -4781,9 +4689,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -4825,13 +4733,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -4843,7 +4751,7 @@
         <v>360</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>380</v>
@@ -4851,13 +4759,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -4869,7 +4777,7 @@
         <v>360</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>380</v>
@@ -4877,13 +4785,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4895,7 +4803,7 @@
         <v>360</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>380</v>
@@ -4903,13 +4811,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4921,7 +4829,7 @@
         <v>360</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>380</v>
@@ -4929,13 +4837,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4947,7 +4855,7 @@
         <v>360</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>380</v>
@@ -4955,13 +4863,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4973,7 +4881,7 @@
         <v>360</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>380</v>
@@ -4981,13 +4889,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4999,7 +4907,7 @@
         <v>360</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>380</v>
@@ -5007,13 +4915,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -5025,7 +4933,7 @@
         <v>360</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>380</v>
@@ -5033,13 +4941,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -5051,7 +4959,7 @@
         <v>360</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>380</v>
@@ -5059,13 +4967,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -5077,7 +4985,7 @@
         <v>360</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>380</v>
@@ -5085,13 +4993,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -5103,7 +5011,7 @@
         <v>360</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>380</v>
@@ -5111,13 +5019,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>358</v>
@@ -5129,7 +5037,7 @@
         <v>360</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>380</v>
@@ -5137,13 +5045,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>358</v>
@@ -5155,87 +5063,9 @@
         <v>360</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>452</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="H17" s="36" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5264,7 +5094,7 @@
         <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5272,25 +5102,25 @@
         <v>363</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="36" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -5301,10 +5131,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5327,195 +5157,184 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B6" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B7" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B8" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B9" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B10" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B12" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B13" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B14" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B15" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B16" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B17" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>469</v>
-      </c>
-      <c r="B18" t="s">
-        <v>486</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2:C18" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
+    <hyperlink ref="C2:C17" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6373C28D-FE5A-4CFE-A2A2-C0A7CBC28220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A208A728-8901-40DF-80C3-CCF82B282D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="556">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1118,9 +1118,6 @@
     <t>TeamUserName</t>
   </si>
   <si>
-    <t>23rd October</t>
-  </si>
-  <si>
     <t>SearchUserName</t>
   </si>
   <si>
@@ -1169,84 +1166,24 @@
     <t>Pre-Approved Page</t>
   </si>
   <si>
-    <t>  Chicago</t>
-  </si>
-  <si>
-    <t>Patric73</t>
-  </si>
-  <si>
-    <t>Patric74</t>
-  </si>
-  <si>
-    <t>Patric75</t>
-  </si>
-  <si>
-    <t>Patric76</t>
-  </si>
-  <si>
-    <t>Patric77</t>
-  </si>
-  <si>
     <t>Patric78</t>
   </si>
   <si>
     <t>Patric79</t>
   </si>
   <si>
-    <t>Wilson73</t>
-  </si>
-  <si>
-    <t>Wilson74</t>
-  </si>
-  <si>
-    <t>Wilson75</t>
-  </si>
-  <si>
-    <t>Wilson76</t>
-  </si>
-  <si>
-    <t>Wilson77</t>
-  </si>
-  <si>
     <t>Wilson78</t>
   </si>
   <si>
     <t>Wilson79</t>
   </si>
   <si>
-    <t>ssr73@gmail.com</t>
-  </si>
-  <si>
-    <t>ssr74@gmail.com</t>
-  </si>
-  <si>
-    <t>ssr75@gmail.com</t>
-  </si>
-  <si>
-    <t>ssr76@gmail.com</t>
-  </si>
-  <si>
-    <t>ssr77@gmail.com</t>
-  </si>
-  <si>
     <t>ssr78@gmail.com</t>
   </si>
   <si>
     <t>ssr79@gmail.com</t>
   </si>
   <si>
-    <t>Patric91</t>
-  </si>
-  <si>
-    <t>Wilson91</t>
-  </si>
-  <si>
-    <t>Patric92</t>
-  </si>
-  <si>
-    <t>Wilson92</t>
-  </si>
-  <si>
     <t>Patric93</t>
   </si>
   <si>
@@ -1313,12 +1250,6 @@
     <t>Wilson103</t>
   </si>
   <si>
-    <t>ssr91@gmail.com</t>
-  </si>
-  <si>
-    <t>ssr92@gmail.com</t>
-  </si>
-  <si>
     <t>ssr93@gmail.com</t>
   </si>
   <si>
@@ -1352,12 +1283,6 @@
     <t>ssr103@gmail.com</t>
   </si>
   <si>
-    <t>EventAutomation36</t>
-  </si>
-  <si>
-    <t>EventAutomation37</t>
-  </si>
-  <si>
     <t>EventAutomation38</t>
   </si>
   <si>
@@ -1400,12 +1325,6 @@
     <t>EventAutomation51</t>
   </si>
   <si>
-    <t>Event Created By Automation36</t>
-  </si>
-  <si>
-    <t>Event Created By Automation37</t>
-  </si>
-  <si>
     <t>Event Created By Automation38</t>
   </si>
   <si>
@@ -1448,12 +1367,6 @@
     <t>Event Created By Automation51</t>
   </si>
   <si>
-    <t>http://www.myevents.com/automationevent98789924</t>
-  </si>
-  <si>
-    <t>http://www.myevents.com/automationevent98789925</t>
-  </si>
-  <si>
     <t>http://www.myevents.com/automationevent98789926</t>
   </si>
   <si>
@@ -1514,9 +1427,6 @@
     <t>Automation7</t>
   </si>
   <si>
-    <t>Automation6</t>
-  </si>
-  <si>
     <t>Automation9</t>
   </si>
   <si>
@@ -1577,12 +1487,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>TestAutomation8</t>
-  </si>
-  <si>
-    <t>TestAutomation9</t>
-  </si>
-  <si>
     <t>TestAutomation10</t>
   </si>
   <si>
@@ -1616,9 +1520,6 @@
     <t>TestAutomation20</t>
   </si>
   <si>
-    <t>/Auto6mation8</t>
-  </si>
-  <si>
     <t>/Auto6mation9</t>
   </si>
   <si>
@@ -1644,13 +1545,163 @@
   </si>
   <si>
     <t>AutoForm12</t>
+  </si>
+  <si>
+    <t>  Veriday Inc</t>
+  </si>
+  <si>
+    <t>StatesofRegistrationFor DemoQA</t>
+  </si>
+  <si>
+    <t>98756326</t>
+  </si>
+  <si>
+    <t>98756327</t>
+  </si>
+  <si>
+    <t>Patric80</t>
+  </si>
+  <si>
+    <t>Wilson80</t>
+  </si>
+  <si>
+    <t>853-046-6047</t>
+  </si>
+  <si>
+    <t>98756328</t>
+  </si>
+  <si>
+    <t>Patric81</t>
+  </si>
+  <si>
+    <t>Wilson81</t>
+  </si>
+  <si>
+    <t>853-046-6048</t>
+  </si>
+  <si>
+    <t>98756329</t>
+  </si>
+  <si>
+    <t>Patric82</t>
+  </si>
+  <si>
+    <t>Wilson82</t>
+  </si>
+  <si>
+    <t>853-046-6049</t>
+  </si>
+  <si>
+    <t>98756330</t>
+  </si>
+  <si>
+    <t>Patric83</t>
+  </si>
+  <si>
+    <t>Wilson83</t>
+  </si>
+  <si>
+    <t>853-046-6050</t>
+  </si>
+  <si>
+    <t>98756331</t>
+  </si>
+  <si>
+    <t>Patric84</t>
+  </si>
+  <si>
+    <t>Wilson84</t>
+  </si>
+  <si>
+    <t>853-046-6051</t>
+  </si>
+  <si>
+    <t>98756332</t>
+  </si>
+  <si>
+    <t>Patric85</t>
+  </si>
+  <si>
+    <t>Wilson85</t>
+  </si>
+  <si>
+    <t>853-046-6052</t>
+  </si>
+  <si>
+    <t>98756333</t>
+  </si>
+  <si>
+    <t>Patric86</t>
+  </si>
+  <si>
+    <t>Wilson86</t>
+  </si>
+  <si>
+    <t>853-046-6053</t>
+  </si>
+  <si>
+    <t>98756334</t>
+  </si>
+  <si>
+    <t>Patric87</t>
+  </si>
+  <si>
+    <t>Wilson87</t>
+  </si>
+  <si>
+    <t>853-046-6054</t>
+  </si>
+  <si>
+    <t>98756335</t>
+  </si>
+  <si>
+    <t>Patric88</t>
+  </si>
+  <si>
+    <t>Wilson88</t>
+  </si>
+  <si>
+    <t>853-046-6055</t>
+  </si>
+  <si>
+    <t>98756336</t>
+  </si>
+  <si>
+    <t>ssr80@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr81@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr82@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr83@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr84@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr85@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr86@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr87@gmail.com</t>
+  </si>
+  <si>
+    <t>ssr88@gmail.com</t>
+  </si>
+  <si>
+    <t>Alisha New</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1741,6 +1792,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1781,7 +1838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1887,6 +1944,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3682,7 +3740,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,109 +3753,100 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="C2" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C3" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="E3" s="36"/>
       <c r="G3" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
         <v>499</v>
       </c>
       <c r="C4" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="E4" s="36"/>
       <c r="G4" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B5" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="C5" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="E5" s="36"/>
       <c r="G5" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>534</v>
-      </c>
-      <c r="B6" t="s">
-        <v>535</v>
-      </c>
-      <c r="C6" t="s">
-        <v>536</v>
-      </c>
       <c r="E6" s="36"/>
       <c r="G6" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3809,10 +3858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,14 +3871,15 @@
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>354</v>
       </c>
@@ -3851,22 +3901,24 @@
       <c r="G1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>507</v>
+      </c>
       <c r="I1" s="8" t="s">
         <v>361</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>388</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3878,33 +3930,21 @@
         <v>360</v>
       </c>
       <c r="G2" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>389</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -3916,26 +3956,21 @@
         <v>360</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>397</v>
+        <v>546</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>383</v>
+        <v>510</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>390</v>
+        <v>511</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -3944,29 +3979,34 @@
         <v>359</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>360</v>
+        <v>512</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>398</v>
+        <v>547</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>384</v>
+        <v>514</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>391</v>
+        <v>515</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -3975,45 +4015,34 @@
         <v>359</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>360</v>
+        <v>516</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="16"/>
-    </row>
-    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>399</v>
+        <v>548</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>385</v>
+        <v>518</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>392</v>
+        <v>519</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4022,12 +4051,14 @@
         <v>359</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="H6" s="6"/>
+        <v>506</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>521</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -4038,29 +4069,16 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>400</v>
+        <v>549</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>386</v>
+        <v>522</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>393</v>
+        <v>523</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4069,21 +4087,34 @@
         <v>359</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>360</v>
+        <v>524</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>401</v>
+        <v>550</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>387</v>
+        <v>526</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>394</v>
+        <v>527</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4092,58 +4123,122 @@
         <v>359</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>360</v>
+        <v>528</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="15"/>
+        <v>506</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>537</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="23"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>541</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -4155,14 +4250,31 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>545</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -4174,34 +4286,34 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -4212,14 +4324,14 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -4231,36 +4343,36 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -4270,54 +4382,54 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="K20" s="35"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -4327,40 +4439,40 @@
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
@@ -4374,7 +4486,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="K23" s="35"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -4384,35 +4496,35 @@
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="35"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -4421,14 +4533,14 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -4440,45 +4552,35 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-    </row>
-    <row r="29" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -4486,18 +4588,8 @@
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-    </row>
-    <row r="30" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -4505,16 +4597,6 @@
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
@@ -4524,71 +4606,6 @@
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4619,63 +4636,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="B2" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="C2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D2" t="s">
         <v>505</v>
       </c>
-      <c r="D2" t="s">
-        <v>538</v>
-      </c>
       <c r="E2" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="F2" s="38" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="H2" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -4689,9 +4706,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -4701,11 +4718,12 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>354</v>
       </c>
@@ -4730,16 +4748,19 @@
       <c r="H1" s="8" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -4751,21 +4772,24 @@
         <v>360</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -4777,21 +4801,24 @@
         <v>360</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4803,21 +4830,24 @@
         <v>360</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4829,21 +4859,24 @@
         <v>360</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4855,21 +4888,24 @@
         <v>360</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4881,21 +4917,24 @@
         <v>360</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4907,21 +4946,24 @@
         <v>360</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4933,21 +4975,24 @@
         <v>360</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -4959,21 +5004,24 @@
         <v>360</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -4985,21 +5033,21 @@
         <v>360</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>358</v>
@@ -5011,67 +5059,16 @@
         <v>360</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>380</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5080,7 +5077,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5091,36 +5088,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>363</v>
+      <c r="A2" s="49" t="s">
+        <v>555</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="36" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -5131,9 +5128,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -5146,195 +5143,173 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="B15" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>455</v>
-      </c>
-      <c r="B16" t="s">
-        <v>471</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B17" t="s">
-        <v>472</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2:C17" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
+    <hyperlink ref="C2:C15" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A208A728-8901-40DF-80C3-CCF82B282D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D19D0FE-E8E0-4BB2-9FB3-57B7A8297E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="542">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1166,30 +1166,15 @@
     <t>Pre-Approved Page</t>
   </si>
   <si>
-    <t>Patric78</t>
-  </si>
-  <si>
     <t>Patric79</t>
   </si>
   <si>
-    <t>Wilson78</t>
-  </si>
-  <si>
     <t>Wilson79</t>
   </si>
   <si>
-    <t>ssr78@gmail.com</t>
-  </si>
-  <si>
     <t>ssr79@gmail.com</t>
   </si>
   <si>
-    <t>Patric93</t>
-  </si>
-  <si>
-    <t>Wilson93</t>
-  </si>
-  <si>
     <t>Patric94</t>
   </si>
   <si>
@@ -1250,9 +1235,6 @@
     <t>Wilson103</t>
   </si>
   <si>
-    <t>ssr93@gmail.com</t>
-  </si>
-  <si>
     <t>ssr94@gmail.com</t>
   </si>
   <si>
@@ -1283,9 +1265,6 @@
     <t>ssr103@gmail.com</t>
   </si>
   <si>
-    <t>EventAutomation38</t>
-  </si>
-  <si>
     <t>EventAutomation39</t>
   </si>
   <si>
@@ -1325,9 +1304,6 @@
     <t>EventAutomation51</t>
   </si>
   <si>
-    <t>Event Created By Automation38</t>
-  </si>
-  <si>
     <t>Event Created By Automation39</t>
   </si>
   <si>
@@ -1367,9 +1343,6 @@
     <t>Event Created By Automation51</t>
   </si>
   <si>
-    <t>http://www.myevents.com/automationevent98789926</t>
-  </si>
-  <si>
     <t>http://www.myevents.com/automationevent98789927</t>
   </si>
   <si>
@@ -1424,15 +1397,9 @@
     <t>Reset Password Link</t>
   </si>
   <si>
-    <t>Automation7</t>
-  </si>
-  <si>
     <t>Automation9</t>
   </si>
   <si>
-    <t>Automation11</t>
-  </si>
-  <si>
     <t>Automation8</t>
   </si>
   <si>
@@ -1487,9 +1454,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>TestAutomation10</t>
-  </si>
-  <si>
     <t>TestAutomation11</t>
   </si>
   <si>
@@ -1520,9 +1484,6 @@
     <t>TestAutomation20</t>
   </si>
   <si>
-    <t>/Auto6mation9</t>
-  </si>
-  <si>
     <t>/Auto6mation10</t>
   </si>
   <si>
@@ -1551,9 +1512,6 @@
   </si>
   <si>
     <t>StatesofRegistrationFor DemoQA</t>
-  </si>
-  <si>
-    <t>98756326</t>
   </si>
   <si>
     <t>98756327</t>
@@ -1914,11 +1872,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1926,17 +1891,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1944,7 +1900,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2254,7 +2212,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2268,7 +2226,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2428,13 +2386,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="40"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="40"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2447,7 +2405,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2714,7 +2672,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="42"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2747,7 +2705,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="42"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3092,14 +3050,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3127,13 +3085,13 @@
     </row>
     <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -3161,13 +3119,13 @@
     </row>
     <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -3195,13 +3153,13 @@
     </row>
     <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -3229,13 +3187,13 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -3263,13 +3221,13 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -3297,13 +3255,13 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -3331,13 +3289,13 @@
     </row>
     <row r="51" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -3365,13 +3323,13 @@
     </row>
     <row r="52" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -3399,13 +3357,13 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -3433,13 +3391,13 @@
     </row>
     <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -3501,13 +3459,13 @@
     </row>
     <row r="56" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -3535,13 +3493,13 @@
     </row>
     <row r="57" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -3569,13 +3527,13 @@
     </row>
     <row r="58" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -3603,13 +3561,13 @@
     </row>
     <row r="59" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -3637,13 +3595,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3671,13 +3629,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3705,11 +3663,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3726,6 +3679,11 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3740,7 +3698,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3767,13 +3725,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C2" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>371</v>
@@ -3784,13 +3742,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C3" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="E3" s="36"/>
       <c r="G3" s="36" t="s">
@@ -3799,13 +3757,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C4" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E4" s="36"/>
       <c r="G4" s="36" t="s">
@@ -3813,15 +3771,6 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>501</v>
-      </c>
-      <c r="B5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C5" t="s">
-        <v>503</v>
-      </c>
       <c r="E5" s="36"/>
       <c r="G5" s="36" t="s">
         <v>377</v>
@@ -3858,10 +3807,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,7 +3851,7 @@
         <v>215</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>361</v>
@@ -3912,13 +3861,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>379</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3930,21 +3879,21 @@
         <v>360</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>384</v>
+        <v>532</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>380</v>
+        <v>496</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>382</v>
+        <v>497</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -3953,24 +3902,34 @@
         <v>359</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>360</v>
+        <v>498</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -3979,34 +3938,34 @@
         <v>359</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
+        <v>503</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4015,34 +3974,34 @@
         <v>359</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="15"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4051,13 +4010,13 @@
         <v>359</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -4072,13 +4031,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4087,13 +4046,13 @@
         <v>359</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -4108,13 +4067,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4123,15 +4082,15 @@
         <v>359</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="I8" s="6"/>
+        <v>519</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -4144,13 +4103,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4159,15 +4118,15 @@
         <v>359</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>523</v>
+      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -4178,15 +4137,15 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -4195,13 +4154,13 @@
         <v>359</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -4216,13 +4175,13 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -4231,13 +4190,13 @@
         <v>359</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -4251,68 +4210,51 @@
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -4325,40 +4267,40 @@
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
@@ -4372,7 +4314,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="35"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -4382,40 +4324,40 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
@@ -4429,7 +4371,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="35"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -4439,54 +4381,54 @@
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="35"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -4514,7 +4456,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4560,16 +4502,6 @@
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
@@ -4597,15 +4529,6 @@
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4636,63 +4559,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D2" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F2" s="38" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="H2" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -4706,7 +4629,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -4749,18 +4672,18 @@
         <v>215</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -4772,24 +4695,24 @@
         <v>360</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -4801,24 +4724,24 @@
         <v>360</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4830,24 +4753,24 @@
         <v>360</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4859,24 +4782,24 @@
         <v>360</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4888,24 +4811,24 @@
         <v>360</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4917,24 +4840,24 @@
         <v>360</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4946,24 +4869,24 @@
         <v>360</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4975,24 +4898,24 @@
         <v>360</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>506</v>
-      </c>
       <c r="I9" s="20" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -5004,24 +4927,21 @@
         <v>360</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>545</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -5033,36 +4953,10 @@
         <v>360</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -5091,33 +4985,33 @@
         <v>363</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>555</v>
+      <c r="A2" s="39" t="s">
+        <v>541</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="36" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -5128,7 +5022,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -5154,162 +5048,151 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B11" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B14" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>431</v>
-      </c>
-      <c r="B15" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2:C15" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
+    <hyperlink ref="C2:C14" r:id="rId1" display="http://www.myevents.com/automationevent98789918" xr:uid="{35BDE04D-5D5D-4573-AFE2-F49301F62861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5336,7 +5219,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -5440,7 +5323,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="6" t="s">
         <v>188</v>
       </c>
@@ -5986,7 +5869,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -6042,7 +5925,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6111,7 +5994,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="46" t="s">
         <v>198</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -6143,7 +6026,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="6" t="s">
         <v>203</v>
       </c>
@@ -6186,7 +6069,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="43" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6229,7 +6112,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6509,7 +6392,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="43" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -6544,7 +6427,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -6589,7 +6472,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -6642,7 +6525,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -6693,7 +6576,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="43" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6758,7 +6641,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -6822,6 +6705,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -6831,11 +6719,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D19D0FE-E8E0-4BB2-9FB3-57B7A8297E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA67EA-607F-4A81-ADCA-5296A57DDFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="538">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1166,15 +1166,6 @@
     <t>Pre-Approved Page</t>
   </si>
   <si>
-    <t>Patric79</t>
-  </si>
-  <si>
-    <t>Wilson79</t>
-  </si>
-  <si>
-    <t>ssr79@gmail.com</t>
-  </si>
-  <si>
     <t>Patric94</t>
   </si>
   <si>
@@ -1514,9 +1505,6 @@
     <t>StatesofRegistrationFor DemoQA</t>
   </si>
   <si>
-    <t>98756327</t>
-  </si>
-  <si>
     <t>Patric80</t>
   </si>
   <si>
@@ -1625,9 +1613,6 @@
     <t>98756336</t>
   </si>
   <si>
-    <t>ssr80@gmail.com</t>
-  </si>
-  <si>
     <t>ssr81@gmail.com</t>
   </si>
   <si>
@@ -1653,6 +1638,9 @@
   </si>
   <si>
     <t>Alisha New</t>
+  </si>
+  <si>
+    <t>ssr80</t>
   </si>
 </sst>
 </file>
@@ -1873,17 +1861,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1891,17 +1873,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2212,7 +2200,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2226,7 +2214,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2386,13 +2374,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="44"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="44"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2405,7 +2393,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2672,7 +2660,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="45"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2705,7 +2693,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="45"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3050,14 +3038,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3595,13 +3583,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3629,13 +3617,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3663,6 +3651,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3679,11 +3672,6 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3725,13 +3713,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>371</v>
@@ -3742,13 +3730,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E3" s="36"/>
       <c r="G3" s="36" t="s">
@@ -3757,13 +3745,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E4" s="36"/>
       <c r="G4" s="36" t="s">
@@ -3807,10 +3795,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,7 +3839,7 @@
         <v>215</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>361</v>
@@ -3859,15 +3847,15 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>381</v>
+        <v>537</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>379</v>
+        <v>492</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>380</v>
+        <v>493</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3876,18 +3864,28 @@
         <v>359</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>360</v>
+        <v>494</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>496</v>
@@ -3905,25 +3903,25 @@
         <v>498</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>500</v>
@@ -3941,25 +3939,25 @@
         <v>502</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>503</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="15"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="23"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>504</v>
@@ -3977,7 +3975,7 @@
         <v>506</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>507</v>
@@ -3995,7 +3993,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>508</v>
@@ -4013,7 +4011,7 @@
         <v>510</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>511</v>
@@ -4031,7 +4029,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>512</v>
@@ -4049,12 +4047,12 @@
         <v>514</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -4067,7 +4065,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>516</v>
@@ -4085,12 +4083,12 @@
         <v>518</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -4101,9 +4099,9 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>520</v>
@@ -4121,7 +4119,7 @@
         <v>522</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>523</v>
@@ -4139,7 +4137,7 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>524</v>
@@ -4157,7 +4155,7 @@
         <v>526</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>527</v>
@@ -4174,68 +4172,51 @@
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>540</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>493</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -4248,40 +4229,40 @@
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
@@ -4295,7 +4276,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="35"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -4305,40 +4286,40 @@
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
@@ -4352,7 +4333,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="35"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -4362,54 +4343,54 @@
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="35"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -4437,7 +4418,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -4483,16 +4464,6 @@
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
@@ -4520,15 +4491,6 @@
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4559,63 +4521,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E2" t="s">
         <v>463</v>
-      </c>
-      <c r="C2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D2" t="s">
-        <v>492</v>
-      </c>
-      <c r="E2" t="s">
-        <v>466</v>
       </c>
       <c r="F2" s="38" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -4672,18 +4634,18 @@
         <v>215</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -4695,24 +4657,24 @@
         <v>360</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -4724,24 +4686,24 @@
         <v>360</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4753,24 +4715,24 @@
         <v>360</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4782,24 +4744,24 @@
         <v>360</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4811,24 +4773,24 @@
         <v>360</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4840,24 +4802,24 @@
         <v>360</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4869,24 +4831,24 @@
         <v>360</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4898,24 +4860,24 @@
         <v>360</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -4927,21 +4889,21 @@
         <v>360</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -4953,10 +4915,10 @@
         <v>360</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -4985,33 +4947,33 @@
         <v>363</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="36" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -5024,7 +4986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -5048,145 +5010,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -5869,7 +5831,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -5925,7 +5887,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6069,7 +6031,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="40" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6080,7 +6042,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="49" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6112,7 +6074,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6121,7 +6083,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="48"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -6161,7 +6123,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="48" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -6182,7 +6144,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="48" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -6202,7 +6164,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -6221,7 +6183,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="47"/>
+      <c r="K34" s="48"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -6242,7 +6204,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -6263,7 +6225,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="47" t="s">
+      <c r="K36" s="48" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -6283,7 +6245,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -6302,7 +6264,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="47"/>
+      <c r="K37" s="48"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -6320,7 +6282,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="49" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -6338,7 +6300,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="47" t="s">
+      <c r="K39" s="48" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -6358,7 +6320,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -6374,7 +6336,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="47"/>
+      <c r="K40" s="48"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -6392,7 +6354,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="40" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -6427,7 +6389,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -6472,7 +6434,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="45" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -6525,7 +6487,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -6576,7 +6538,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="40" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6641,7 +6603,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -6705,11 +6667,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -6719,6 +6676,11 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA67EA-607F-4A81-ADCA-5296A57DDFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A5A909-E574-4C46-B293-A5865722022C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="536">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1166,12 +1166,6 @@
     <t>Pre-Approved Page</t>
   </si>
   <si>
-    <t>Patric94</t>
-  </si>
-  <si>
-    <t>Wilson94</t>
-  </si>
-  <si>
     <t>Patric95</t>
   </si>
   <si>
@@ -1226,9 +1220,6 @@
     <t>Wilson103</t>
   </si>
   <si>
-    <t>ssr94@gmail.com</t>
-  </si>
-  <si>
     <t>ssr95@gmail.com</t>
   </si>
   <si>
@@ -1253,9 +1244,6 @@
     <t>ssr102@gmail.com</t>
   </si>
   <si>
-    <t>ssr103@gmail.com</t>
-  </si>
-  <si>
     <t>EventAutomation39</t>
   </si>
   <si>
@@ -1445,9 +1433,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>TestAutomation11</t>
-  </si>
-  <si>
     <t>TestAutomation12</t>
   </si>
   <si>
@@ -1505,12 +1490,6 @@
     <t>StatesofRegistrationFor DemoQA</t>
   </si>
   <si>
-    <t>Patric80</t>
-  </si>
-  <si>
-    <t>Wilson80</t>
-  </si>
-  <si>
     <t>853-046-6047</t>
   </si>
   <si>
@@ -1640,7 +1619,22 @@
     <t>Alisha New</t>
   </si>
   <si>
-    <t>ssr80</t>
+    <t>Patric</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>ssr</t>
+  </si>
+  <si>
+    <t>TestAutomation</t>
+  </si>
+  <si>
+    <t>tur</t>
+  </si>
+  <si>
+    <t>James</t>
   </si>
 </sst>
 </file>
@@ -1861,11 +1855,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1873,23 +1873,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2200,7 +2194,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2214,7 +2208,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2374,13 +2368,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="40"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="40"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2393,7 +2387,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2660,7 +2654,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="42"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2693,7 +2687,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="42"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3038,14 +3032,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3583,13 +3577,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3617,13 +3611,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3651,11 +3645,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3672,6 +3661,11 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -3713,13 +3707,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>371</v>
@@ -3730,13 +3724,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E3" s="36"/>
       <c r="G3" s="36" t="s">
@@ -3745,13 +3739,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E4" s="36"/>
       <c r="G4" s="36" t="s">
@@ -3797,8 +3791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3839,7 +3833,7 @@
         <v>215</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>361</v>
@@ -3849,13 +3843,13 @@
     </row>
     <row r="2" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -3864,13 +3858,13 @@
         <v>359</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -3885,13 +3879,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -3900,13 +3894,13 @@
         <v>359</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -3921,13 +3915,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -3936,13 +3930,13 @@
         <v>359</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -3957,13 +3951,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -3972,13 +3966,13 @@
         <v>359</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -3993,13 +3987,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4008,13 +4002,13 @@
         <v>359</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -4029,13 +4023,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4044,13 +4038,13 @@
         <v>359</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
@@ -4065,13 +4059,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4080,13 +4074,13 @@
         <v>359</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -4101,13 +4095,13 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4116,13 +4110,13 @@
         <v>359</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -4137,13 +4131,13 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -4152,13 +4146,13 @@
         <v>359</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -4521,63 +4515,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F2" s="38" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H2" t="s">
         <v>466</v>
       </c>
-      <c r="H2" t="s">
-        <v>470</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -4593,8 +4587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,18 +4628,18 @@
         <v>215</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>399</v>
+        <v>534</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>379</v>
+        <v>535</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>380</v>
+        <v>531</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>358</v>
@@ -4657,24 +4651,24 @@
         <v>360</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>358</v>
@@ -4686,24 +4680,24 @@
         <v>360</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>358</v>
@@ -4715,24 +4709,24 @@
         <v>360</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>358</v>
@@ -4744,24 +4738,24 @@
         <v>360</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>358</v>
@@ -4773,24 +4767,24 @@
         <v>360</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>358</v>
@@ -4802,24 +4796,24 @@
         <v>360</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>358</v>
@@ -4831,24 +4825,24 @@
         <v>360</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>358</v>
@@ -4860,24 +4854,24 @@
         <v>360</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>358</v>
@@ -4889,21 +4883,19 @@
         <v>360</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>408</v>
-      </c>
+      <c r="A11" s="37"/>
       <c r="B11" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>358</v>
@@ -4915,10 +4907,10 @@
         <v>360</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -4947,33 +4939,33 @@
         <v>363</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="36" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="36" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="36" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -5010,145 +5002,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -5831,7 +5823,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -5887,7 +5879,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6031,7 +6023,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="43" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6042,7 +6034,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="48" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6074,7 +6066,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6083,7 +6075,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="49"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -6123,7 +6115,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="47" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -6144,7 +6136,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="48" t="s">
+      <c r="K33" s="47" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -6164,7 +6156,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -6183,7 +6175,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="48"/>
+      <c r="K34" s="47"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -6204,7 +6196,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="47" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -6225,7 +6217,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="48" t="s">
+      <c r="K36" s="47" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -6245,7 +6237,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -6264,7 +6256,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="48"/>
+      <c r="K37" s="47"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -6282,7 +6274,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="48" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -6300,7 +6292,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="47" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -6320,7 +6312,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -6336,7 +6328,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="48"/>
+      <c r="K40" s="47"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -6354,7 +6346,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="43" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -6389,7 +6381,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -6434,7 +6426,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -6487,7 +6479,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -6538,7 +6530,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="43" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6603,7 +6595,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -6667,6 +6659,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -6676,11 +6673,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A5A909-E574-4C46-B293-A5865722022C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77989E-21F9-4F11-BB56-776729546589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,10 @@
     <sheet name="CreateUser" sheetId="2" r:id="rId3"/>
     <sheet name="CreateNewForm" sheetId="9" r:id="rId4"/>
     <sheet name="CreateTeamUser" sheetId="5" r:id="rId5"/>
-    <sheet name="SearchUser" sheetId="6" r:id="rId6"/>
-    <sheet name="NewEventDetails" sheetId="7" r:id="rId7"/>
-    <sheet name="Branch" sheetId="4" r:id="rId8"/>
+    <sheet name="NewGroup" sheetId="10" r:id="rId6"/>
+    <sheet name="SearchUser" sheetId="6" r:id="rId7"/>
+    <sheet name="NewEventDetails" sheetId="7" r:id="rId8"/>
+    <sheet name="Branch" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="537">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1635,6 +1636,9 @@
   </si>
   <si>
     <t>James</t>
+  </si>
+  <si>
+    <t>AutomationGroup</t>
   </si>
 </sst>
 </file>
@@ -1855,17 +1859,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1873,17 +1871,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2194,7 +2198,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2208,7 +2212,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2368,13 +2372,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="44"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="44"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2387,7 +2391,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2654,7 +2658,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="45"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2687,7 +2691,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="45"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3032,14 +3036,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3577,13 +3581,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3611,13 +3615,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3645,6 +3649,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3661,11 +3670,6 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -4587,7 +4591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4921,6 +4925,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28877364-3A8C-400C-A086-72B83FEB2E27}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76A90F2-FEBC-495D-96DD-9CDE989D1767}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -4974,7 +5007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -5152,7 +5185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH52"/>
   <sheetViews>
@@ -5823,7 +5856,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -5879,7 +5912,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6023,7 +6056,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="40" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6034,7 +6067,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="49" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6066,7 +6099,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6075,7 +6108,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="48"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -6115,7 +6148,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="48" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -6136,7 +6169,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="48" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -6156,7 +6189,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -6175,7 +6208,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="47"/>
+      <c r="K34" s="48"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -6196,7 +6229,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -6217,7 +6250,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="47" t="s">
+      <c r="K36" s="48" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -6237,7 +6270,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -6256,7 +6289,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="47"/>
+      <c r="K37" s="48"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -6274,7 +6307,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="49" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -6292,7 +6325,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="47" t="s">
+      <c r="K39" s="48" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -6312,7 +6345,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -6328,7 +6361,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="47"/>
+      <c r="K40" s="48"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -6346,7 +6379,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="40" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -6381,7 +6414,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -6426,7 +6459,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="45" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -6479,7 +6512,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -6530,7 +6563,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="40" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6595,7 +6628,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -6659,11 +6692,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -6673,6 +6701,11 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77989E-21F9-4F11-BB56-776729546589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E945A0-6375-4192-AACB-4F4882EBDD67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="547">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1639,13 +1639,54 @@
   </si>
   <si>
     <t>AutomationGroup</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5580</t>
+    </r>
+  </si>
+  <si>
+    <t>Explorer Dr, Mississauga</t>
+  </si>
+  <si>
+    <t>Mississauga</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>L4W</t>
+  </si>
+  <si>
+    <t>Branch/RegionAddressLine1</t>
+  </si>
+  <si>
+    <t>Branch/RegionAddressLine2</t>
+  </si>
+  <si>
+    <t>Branch/Region-City</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1742,6 +1783,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1782,7 +1836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1859,11 +1913,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1871,17 +1931,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1889,6 +1940,11 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2198,7 +2254,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2212,7 +2268,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2372,13 +2428,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="40"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="40"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2391,7 +2447,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2658,7 +2714,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="42"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2691,7 +2747,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="42"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3036,14 +3092,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3581,13 +3637,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3615,13 +3671,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3649,11 +3705,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3670,6 +3721,11 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -4926,25 +4982,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28877364-3A8C-400C-A086-72B83FEB2E27}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>536</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>539</v>
+      </c>
+      <c r="D2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="G2" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -5856,7 +5950,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -5912,7 +6006,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6056,7 +6150,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="43" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6067,7 +6161,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="48" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6099,7 +6193,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6108,7 +6202,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="49"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -6148,7 +6242,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="47" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -6169,7 +6263,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="48" t="s">
+      <c r="K33" s="47" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -6189,7 +6283,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -6208,7 +6302,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="48"/>
+      <c r="K34" s="47"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -6229,7 +6323,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="47" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -6250,7 +6344,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="48" t="s">
+      <c r="K36" s="47" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -6270,7 +6364,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -6289,7 +6383,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="48"/>
+      <c r="K37" s="47"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -6307,7 +6401,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="48" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -6325,7 +6419,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="47" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -6345,7 +6439,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -6361,7 +6455,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="48"/>
+      <c r="K40" s="47"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -6379,7 +6473,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="43" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -6414,7 +6508,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -6459,7 +6553,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -6512,7 +6606,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -6563,7 +6657,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="43" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6628,7 +6722,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -6692,6 +6786,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -6701,11 +6800,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E945A0-6375-4192-AACB-4F4882EBDD67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9210B85E-C709-415F-B19C-21F725868836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="550">
   <si>
     <t>HeadOffice</t>
   </si>
@@ -1680,6 +1680,15 @@
   </si>
   <si>
     <t>Branch/Region-City</t>
+  </si>
+  <si>
+    <t>RegionName</t>
+  </si>
+  <si>
+    <t>AutomationRegion</t>
+  </si>
+  <si>
+    <t>AutomationBranch</t>
   </si>
 </sst>
 </file>
@@ -1913,17 +1922,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1931,8 +1936,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1940,11 +1954,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2254,7 +2263,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2268,7 +2277,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="20" t="s">
         <v>351</v>
       </c>
@@ -2428,13 +2437,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="46"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="46"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2447,7 +2456,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2714,7 +2723,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="47"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2747,7 +2756,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="47"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3092,14 +3101,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3127,13 +3136,13 @@
     </row>
     <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -3161,13 +3170,13 @@
     </row>
     <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -3195,13 +3204,13 @@
     </row>
     <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -3229,13 +3238,13 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -3263,13 +3272,13 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -3297,13 +3306,13 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -3331,13 +3340,13 @@
     </row>
     <row r="51" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -3365,13 +3374,13 @@
     </row>
     <row r="52" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -3399,13 +3408,13 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -3433,13 +3442,13 @@
     </row>
     <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -3501,13 +3510,13 @@
     </row>
     <row r="56" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -3535,13 +3544,13 @@
     </row>
     <row r="57" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -3569,13 +3578,13 @@
     </row>
     <row r="58" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -3603,13 +3612,13 @@
     </row>
     <row r="59" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -3705,6 +3714,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3721,11 +3735,6 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
@@ -4982,10 +4991,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28877364-3A8C-400C-A086-72B83FEB2E27}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4993,9 +5002,11 @@
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -5017,15 +5028,21 @@
       <c r="G1" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>536</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="40" t="s">
         <v>538</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="41" t="s">
         <v>539</v>
       </c>
       <c r="D2" t="s">
@@ -5034,11 +5051,17 @@
       <c r="E2" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="41" t="s">
         <v>543</v>
       </c>
       <c r="G2" t="s">
         <v>542</v>
+      </c>
+      <c r="H2" t="s">
+        <v>548</v>
+      </c>
+      <c r="I2" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -5300,7 +5323,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -5404,7 +5427,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="6" t="s">
         <v>188</v>
       </c>
@@ -6075,7 +6098,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="48" t="s">
         <v>198</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -6107,7 +6130,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="6" t="s">
         <v>203</v>
       </c>
@@ -6150,7 +6173,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="42" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6161,7 +6184,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="51" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6193,7 +6216,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6202,7 +6225,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="48"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -6242,7 +6265,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="50" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -6263,7 +6286,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="50" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -6283,7 +6306,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -6302,7 +6325,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="47"/>
+      <c r="K34" s="50"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -6323,7 +6346,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="50" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -6344,7 +6367,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="47" t="s">
+      <c r="K36" s="50" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -6364,7 +6387,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -6383,7 +6406,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="47"/>
+      <c r="K37" s="50"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -6401,7 +6424,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="51" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -6419,7 +6442,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="47" t="s">
+      <c r="K39" s="50" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -6439,7 +6462,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -6455,7 +6478,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="47"/>
+      <c r="K40" s="50"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -6473,7 +6496,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="42" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -6508,7 +6531,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -6553,7 +6576,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="47" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -6606,7 +6629,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -6657,7 +6680,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="42" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6722,7 +6745,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -6786,11 +6809,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -6800,6 +6818,11 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9210B85E-C709-415F-B19C-21F725868836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73209C1F-B7A2-45D2-A5FE-EE8E9E1C15CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -1924,11 +1924,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1936,23 +1942,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2237,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,7 +2263,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2277,8 +2277,8 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="23" t="s">
         <v>351</v>
       </c>
       <c r="C2" s="33" t="s">
@@ -2437,13 +2437,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="42"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="42"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2456,7 +2456,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2723,7 +2723,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="44"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2756,7 +2756,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="44"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3101,14 +3101,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3646,13 +3646,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3680,13 +3680,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3714,11 +3714,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B61:H61"/>
@@ -3735,12 +3730,18 @@
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B47:H47"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{C6A108B5-EAD9-4CDA-939B-8D513990E099}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4993,7 +4994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28877364-3A8C-400C-A086-72B83FEB2E27}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -5973,7 +5974,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -6029,7 +6030,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -6173,7 +6174,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="45" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -6184,7 +6185,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="50" t="s">
         <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6216,7 +6217,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="6" t="s">
         <v>279</v>
       </c>
@@ -6225,7 +6226,7 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="51"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="6" t="s">
         <v>282</v>
       </c>
@@ -6265,7 +6266,7 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="49" t="s">
         <v>227</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -6286,7 +6287,7 @@
       <c r="G33" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="50" t="s">
+      <c r="K33" s="49" t="s">
         <v>236</v>
       </c>
       <c r="L33" s="31" t="s">
@@ -6306,7 +6307,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="6" t="s">
         <v>288</v>
       </c>
@@ -6325,7 +6326,7 @@
       <c r="G34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="50"/>
+      <c r="K34" s="49"/>
       <c r="L34" s="6" t="s">
         <v>291</v>
       </c>
@@ -6346,7 +6347,7 @@
       <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="49" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -6367,7 +6368,7 @@
       <c r="G36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="50" t="s">
+      <c r="K36" s="49" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -6387,7 +6388,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="6" t="s">
         <v>289</v>
       </c>
@@ -6406,7 +6407,7 @@
       <c r="G37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="50"/>
+      <c r="K37" s="49"/>
       <c r="L37" s="6" t="s">
         <v>224</v>
       </c>
@@ -6424,7 +6425,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="50" t="s">
         <v>192</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -6442,7 +6443,7 @@
       <c r="F39" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="50" t="s">
+      <c r="K39" s="49" t="s">
         <v>246</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -6462,7 +6463,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="6" t="s">
         <v>290</v>
       </c>
@@ -6478,7 +6479,7 @@
       <c r="F40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="50"/>
+      <c r="K40" s="49"/>
       <c r="L40" s="6" t="s">
         <v>292</v>
       </c>
@@ -6496,7 +6497,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="45" t="s">
         <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -6531,7 +6532,7 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="6" t="s">
         <v>307</v>
       </c>
@@ -6576,7 +6577,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="44" t="s">
         <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -6629,7 +6630,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="6" t="s">
         <v>308</v>
       </c>
@@ -6680,7 +6681,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="45" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6745,7 +6746,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="6" t="s">
         <v>327</v>
       </c>
@@ -6809,6 +6810,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A26:A27"/>
@@ -6818,11 +6824,6 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/source/TestData.xlsx
+++ b/source/TestData.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73209C1F-B7A2-45D2-A5FE-EE8E9E1C15CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA306A-C992-4B93-8E48-F763853C535F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5145" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="CreateNewPage" sheetId="8" r:id="rId2"/>
-    <sheet name="CreateUser" sheetId="2" r:id="rId3"/>
-    <sheet name="CreateNewForm" sheetId="9" r:id="rId4"/>
-    <sheet name="CreateTeamUser" sheetId="5" r:id="rId5"/>
-    <sheet name="NewGroup" sheetId="10" r:id="rId6"/>
-    <sheet name="SearchUser" sheetId="6" r:id="rId7"/>
-    <sheet name="NewEventDetails" sheetId="7" r:id="rId8"/>
-    <sheet name="Branch" sheetId="4" r:id="rId9"/>
+    <sheet name="CreateWebSite" sheetId="11" r:id="rId3"/>
+    <sheet name="CreateUser" sheetId="2" r:id="rId4"/>
+    <sheet name="CreateNewForm" sheetId="9" r:id="rId5"/>
+    <sheet name="CreateTeamUser" sheetId="5" r:id="rId6"/>
+    <sheet name="NewGroup" sheetId="10" r:id="rId7"/>
+    <sheet name="SearchUser" sheetId="6" r:id="rId8"/>
+    <sheet name="NewEventDetails" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,1062 +28,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="550">
-  <si>
-    <t>HeadOffice</t>
-  </si>
-  <si>
-    <t>https://www.automation.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="214">
   <si>
     <t>LoginDetails</t>
   </si>
   <si>
-    <t>Add Offer</t>
-  </si>
-  <si>
-    <t>Offer Code</t>
-  </si>
-  <si>
-    <t>Offer Type</t>
-  </si>
-  <si>
-    <t>Offer Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Discount Type</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Offer For</t>
-  </si>
-  <si>
-    <t>Offer Quantity</t>
-  </si>
-  <si>
-    <t>Valid till Quantity</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Offer001</t>
-  </si>
-  <si>
-    <t>FlatDiscountOnProduct</t>
-  </si>
-  <si>
-    <t>Diwali Sale</t>
-  </si>
-  <si>
-    <t>Big Sale</t>
-  </si>
-  <si>
-    <t>Percantage</t>
-  </si>
-  <si>
-    <t>Single Product</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Select Lead Status</t>
-  </si>
-  <si>
-    <t>Choose : Category   OR Product/Service</t>
-  </si>
-  <si>
-    <t>Category Or Product Data</t>
-  </si>
-  <si>
-    <t>27-10-2018</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Offer Days</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Lead Satus Wise OR Individual Lead</t>
-  </si>
-  <si>
-    <t>Individual Lead</t>
-  </si>
-  <si>
-    <t>Education - Service</t>
-  </si>
-  <si>
-    <t>Status (Is Active or inActive)</t>
-  </si>
-  <si>
-    <t>BusinessName</t>
-  </si>
-  <si>
-    <t>Create Service</t>
-  </si>
-  <si>
-    <t>ServiceCategory</t>
-  </si>
-  <si>
-    <t>Service Code</t>
-  </si>
-  <si>
-    <t>ServiceName</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>DocumentType</t>
-  </si>
-  <si>
-    <t>sEmailid</t>
-  </si>
-  <si>
-    <t>sEmailType</t>
-  </si>
-  <si>
-    <t>sPassword</t>
-  </si>
-  <si>
-    <t>ServiceStatus</t>
-  </si>
-  <si>
-    <t>SellingPrice</t>
-  </si>
-  <si>
-    <t>ManageFund</t>
-  </si>
-  <si>
-    <t>AddDocument</t>
-  </si>
-  <si>
-    <t>sDescription</t>
-  </si>
-  <si>
-    <t>ShortNotes</t>
-  </si>
-  <si>
     <t>loginPassword</t>
   </si>
   <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>Service1</t>
-  </si>
-  <si>
-    <t>Gmail</t>
-  </si>
-  <si>
-    <t>servicetest@gmail.com</t>
-  </si>
-  <si>
-    <t>service123</t>
-  </si>
-  <si>
-    <t>Instock</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Identity-Card</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>This is service Test</t>
-  </si>
-  <si>
-    <t>Short note on service</t>
-  </si>
-  <si>
-    <t>IsActive</t>
-  </si>
-  <si>
-    <t>TaxApplicable</t>
-  </si>
-  <si>
-    <t>TaxName</t>
-  </si>
-  <si>
-    <t>TaxRate</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>AddTax</t>
-  </si>
-  <si>
-    <t>Proffessional Tax</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Service Tax</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Create Product</t>
-  </si>
-  <si>
-    <t>GroupHead</t>
-  </si>
-  <si>
     <t>GroupName</t>
   </si>
   <si>
-    <t>TestGroup</t>
-  </si>
-  <si>
-    <t>BookName</t>
-  </si>
-  <si>
-    <t>AccountGroup</t>
-  </si>
-  <si>
-    <t>AccountType</t>
-  </si>
-  <si>
-    <t>BookType</t>
-  </si>
-  <si>
-    <t>OpeningBalance</t>
-  </si>
-  <si>
-    <t>Credit/Debit</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>Head/Book</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>Tax Details</t>
-  </si>
-  <si>
-    <t>9856324578</t>
-  </si>
-  <si>
-    <t>ProductCategory</t>
-  </si>
-  <si>
-    <t>ProductCode</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>EmailType</t>
-  </si>
-  <si>
-    <t>pPassword</t>
-  </si>
-  <si>
-    <t>pEmailId</t>
-  </si>
-  <si>
-    <t>pEmailType</t>
-  </si>
-  <si>
-    <t>ProductStatus</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Barcode</t>
-  </si>
-  <si>
-    <t>Measurement</t>
-  </si>
-  <si>
-    <t>PurchasePrice</t>
-  </si>
-  <si>
-    <t>InStock</t>
-  </si>
-  <si>
-    <t>RecorderLevel</t>
-  </si>
-  <si>
-    <t>InDemand</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>ManufacturerName</t>
-  </si>
-  <si>
-    <t>TrackNumber</t>
-  </si>
-  <si>
-    <t>p001</t>
-  </si>
-  <si>
-    <t>Product1</t>
-  </si>
-  <si>
-    <t>product@gmail.com</t>
-  </si>
-  <si>
-    <t>product123</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Pcs</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>Company1</t>
-  </si>
-  <si>
-    <t>M0012</t>
-  </si>
-  <si>
-    <t>E-Commernce</t>
-  </si>
-  <si>
-    <t>Short note on product</t>
-  </si>
-  <si>
-    <t>This is product Test</t>
-  </si>
-  <si>
-    <t>28-10-2018</t>
-  </si>
-  <si>
-    <t>9001</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Branch Details</t>
-  </si>
-  <si>
     <t>BranchName</t>
   </si>
   <si>
-    <t>BranchType</t>
-  </si>
-  <si>
-    <t>WebUrl</t>
-  </si>
-  <si>
-    <t>isActive</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>AddressType</t>
-  </si>
-  <si>
-    <t>BlockNo</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Pincode</t>
-  </si>
-  <si>
-    <t>ContactNo</t>
-  </si>
-  <si>
-    <t>ContactType</t>
-  </si>
-  <si>
-    <t>EmailID</t>
-  </si>
-  <si>
-    <t>SocialLink</t>
-  </si>
-  <si>
-    <t>SocialLinkType</t>
-  </si>
-  <si>
-    <t>WebsiteUrl</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>TimeZone</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>DateFormat</t>
-  </si>
-  <si>
-    <t>TimeFormat</t>
-  </si>
-  <si>
-    <t>FinancialStartYear</t>
-  </si>
-  <si>
-    <t>FinancialEndYear</t>
-  </si>
-  <si>
-    <t>BranchUserName</t>
-  </si>
-  <si>
-    <t>BranchPassword</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
-    <t>Product/Service</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>9:30</t>
-  </si>
-  <si>
-    <t>18:15</t>
-  </si>
-  <si>
-    <t>A/001</t>
-  </si>
-  <si>
-    <t>Satellite</t>
-  </si>
-  <si>
-    <t>INDIA</t>
-  </si>
-  <si>
-    <t>GUJARAT</t>
-  </si>
-  <si>
-    <t>380015</t>
-  </si>
-  <si>
-    <t>886677886677</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>www.facebook.com/automation</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Indian Standard Time</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>dd/MM/yyyy</t>
-  </si>
-  <si>
-    <t>24 Hour</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Student Visa - Service</t>
-  </si>
-  <si>
-    <t>branch@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.branch.com</t>
-  </si>
-  <si>
-    <t>AutoBranch</t>
-  </si>
-  <si>
-    <t>branch123</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Temporary</t>
-  </si>
-  <si>
-    <t>Contra Voucher</t>
-  </si>
-  <si>
-    <t>FromBank</t>
-  </si>
-  <si>
-    <t>ToBank</t>
-  </si>
-  <si>
-    <t>CreditAmount</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>VoucherDate</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>AssignTo</t>
-  </si>
-  <si>
-    <t>TaskPriority</t>
-  </si>
-  <si>
-    <t>TaskStatus</t>
-  </si>
-  <si>
-    <t>Test Task1</t>
-  </si>
-  <si>
-    <t>Selenium Tester</t>
-  </si>
-  <si>
-    <t>29-10-2018</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Task is not active yet</t>
-  </si>
-  <si>
-    <t>Ticket</t>
-  </si>
-  <si>
     <t>loginName</t>
   </si>
   <si>
-    <t>Followup</t>
-  </si>
-  <si>
-    <t>ClientName</t>
-  </si>
-  <si>
-    <t>FollowUpType</t>
-  </si>
-  <si>
-    <t>FollowupName</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>NextDate</t>
-  </si>
-  <si>
-    <t>RemindInPeriod</t>
-  </si>
-  <si>
-    <t>RemindInTime</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>05-11-2018</t>
-  </si>
-  <si>
-    <t>Test Followup</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Payment Voucher</t>
-  </si>
-  <si>
-    <t>SelectAccount</t>
-  </si>
-  <si>
-    <t>AccountName</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>AddNewBook</t>
-  </si>
-  <si>
-    <t>Receipt Voucher</t>
-  </si>
-  <si>
-    <t>Selenium Bank</t>
-  </si>
-  <si>
-    <t>Selenium Ledger</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>Purchase  Voucher</t>
-  </si>
-  <si>
-    <t>SuppplierBook</t>
-  </si>
-  <si>
-    <t>PurchaseBook</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Purchase Book</t>
-  </si>
-  <si>
-    <t>Sales  Voucher</t>
-  </si>
-  <si>
-    <t>CustomerBook</t>
-  </si>
-  <si>
-    <t>Selenium Customer</t>
-  </si>
-  <si>
-    <t>SalesBook</t>
-  </si>
-  <si>
-    <t>Sales Book</t>
-  </si>
-  <si>
-    <t>Journal  Voucher</t>
-  </si>
-  <si>
-    <t>By</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>TestingContra2</t>
-  </si>
-  <si>
-    <t>TestingPayment2</t>
-  </si>
-  <si>
-    <t>TestingReceipt2</t>
-  </si>
-  <si>
-    <t>TestingPurchase2</t>
-  </si>
-  <si>
-    <t>TestingSales2</t>
-  </si>
-  <si>
-    <t>TestingJournal2</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>8:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>5:00</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>8:01</t>
-  </si>
-  <si>
-    <t>8:02</t>
-  </si>
-  <si>
-    <t>8:03</t>
-  </si>
-  <si>
-    <t>12:01</t>
-  </si>
-  <si>
-    <t>12:02</t>
-  </si>
-  <si>
-    <t>12:03</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>31-10-2018</t>
-  </si>
-  <si>
-    <t>15-11-2018</t>
-  </si>
-  <si>
-    <t>nayan@gmail.com</t>
-  </si>
-  <si>
-    <t>Account Group</t>
-  </si>
-  <si>
-    <t>Assets Group</t>
-  </si>
-  <si>
     <t>LoginBy</t>
   </si>
   <si>
-    <t>Create Ledger</t>
-  </si>
-  <si>
-    <t>AutomateBook</t>
-  </si>
-  <si>
-    <t>SeleniumTestGroup</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>Debit</t>
-  </si>
-  <si>
-    <t>SBI,Ahmedabad</t>
-  </si>
-  <si>
-    <t>01-11-2018</t>
-  </si>
-  <si>
-    <t>02-11-2018</t>
-  </si>
-  <si>
-    <t>03-11-2018</t>
-  </si>
-  <si>
-    <t>04-11-2018</t>
-  </si>
-  <si>
-    <t>06-11-2018</t>
-  </si>
-  <si>
-    <t>automat@hui.com</t>
-  </si>
-  <si>
-    <t>Generate Quote</t>
-  </si>
-  <si>
-    <t>FeesList</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Tution Fees for Study</t>
-  </si>
-  <si>
-    <t>Athletic</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>tution fee</t>
-  </si>
-  <si>
-    <t>Athletic Fees for Study</t>
-  </si>
-  <si>
-    <t>Applied Chemistry, B.Sc.</t>
-  </si>
-  <si>
-    <t>TKT181016087</t>
-  </si>
-  <si>
-    <t>Neel Nitin</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>5:00 PM</t>
-  </si>
-  <si>
-    <t>5:30 PM</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>10-12-2018</t>
-  </si>
-  <si>
-    <t>ClosingNote</t>
-  </si>
-  <si>
-    <t>Closing Done</t>
-  </si>
-  <si>
-    <t>Minute</t>
-  </si>
-  <si>
-    <t>Seconds</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>MiddleName</t>
-  </si>
-  <si>
     <t>LastName</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>MaritalStatus</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>TestFirst</t>
-  </si>
-  <si>
-    <t>TestMiddle</t>
-  </si>
-  <si>
-    <t>TestLast</t>
-  </si>
-  <si>
-    <t>16-08-194</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>UnMarried</t>
-  </si>
-  <si>
-    <t>testabc@test.com</t>
-  </si>
-  <si>
-    <t>8866177223</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>DueDate</t>
-  </si>
-  <si>
-    <t>AnyApplicant</t>
-  </si>
-  <si>
-    <t>Howmany</t>
-  </si>
-  <si>
-    <t>LeadType</t>
-  </si>
-  <si>
-    <t>LeadSource</t>
-  </si>
-  <si>
-    <t>LeadScore</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Jitu Aussizz</t>
-  </si>
-  <si>
-    <t>Assigned</t>
-  </si>
-  <si>
-    <t>07-11-2018</t>
-  </si>
-  <si>
-    <t>Inquiry</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Testing lead Comments</t>
-  </si>
-  <si>
-    <t>da.client.admin@veriday.com</t>
   </si>
   <si>
     <t>RBCUS</t>
@@ -1689,6 +666,21 @@
   </si>
   <si>
     <t>AutomationBranch</t>
+  </si>
+  <si>
+    <t>SiteURL</t>
+  </si>
+  <si>
+    <t>SiteTitle</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>da.client.admin@veriday.com</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +798,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1825,12 +817,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1845,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1904,11 +890,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1941,18 +922,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2263,29 +1232,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>2</v>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>280</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>353</v>
+      <c r="A2" s="42"/>
+      <c r="B2" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2437,13 +1406,13 @@
       <c r="AE9" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="39"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="39"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2456,7 +1425,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2723,7 +1692,7 @@
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="41"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2756,7 +1725,7 @@
       <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="41"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3101,14 +2070,14 @@
       <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3136,13 +2105,13 @@
     </row>
     <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -3170,13 +2139,13 @@
     </row>
     <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -3204,13 +2173,13 @@
     </row>
     <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -3238,13 +2207,13 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -3272,13 +2241,13 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -3306,13 +2275,13 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -3340,13 +2309,13 @@
     </row>
     <row r="51" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -3374,13 +2343,13 @@
     </row>
     <row r="52" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -3408,13 +2377,13 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -3442,13 +2411,13 @@
     </row>
     <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -3510,13 +2479,13 @@
     </row>
     <row r="56" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -3544,13 +2513,13 @@
     </row>
     <row r="57" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -3578,13 +2547,13 @@
     </row>
     <row r="58" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -3612,13 +2581,13 @@
     </row>
     <row r="59" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -3646,13 +2615,13 @@
     </row>
     <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3680,13 +2649,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3736,12 +2705,8 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A32:A33"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Test@12345" xr:uid="{07323420-B809-480C-A764-185C7B030B8F}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{C6A108B5-EAD9-4CDA-939B-8D513990E099}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3749,9 +2714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450DEAC-48E2-4D01-955D-94DAF7E03081}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3763,91 +2726,91 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>368</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>369</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>371</v>
+        <v>136</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>478</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="G3" s="36" t="s">
-        <v>375</v>
+        <v>138</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="G3" s="33" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>481</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>482</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="G4" s="36" t="s">
-        <v>376</v>
+        <v>141</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="G4" s="33" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="36"/>
-      <c r="G5" s="36" t="s">
-        <v>377</v>
+      <c r="E5" s="33"/>
+      <c r="G5" s="33" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="36"/>
-      <c r="G6" s="36" t="s">
-        <v>378</v>
+      <c r="E6" s="33"/>
+      <c r="G6" s="33" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>367</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>373</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>374</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3858,6 +2821,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C2E3BA-08FD-4E87-A4C1-D6CBCA2FB26E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
@@ -3882,59 +2881,59 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>354</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>322</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>356</v>
+        <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>357</v>
+        <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>486</v>
+        <v>145</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>532</v>
+      <c r="A2" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>530</v>
+        <v>189</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>531</v>
+        <v>190</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>485</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>488</v>
+        <v>147</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -3948,29 +2947,29 @@
       <c r="R2" s="24"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>521</v>
+      <c r="A3" s="34" t="s">
+        <v>180</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>489</v>
+        <v>148</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>490</v>
+        <v>149</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>485</v>
+        <v>150</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>492</v>
+        <v>151</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -3984,29 +2983,29 @@
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>522</v>
+      <c r="A4" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>493</v>
+        <v>152</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>494</v>
+        <v>153</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>485</v>
+        <v>154</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>496</v>
+        <v>155</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -4020,29 +3019,29 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>523</v>
+      <c r="A5" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>497</v>
+        <v>156</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>498</v>
+        <v>157</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>485</v>
+        <v>158</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>500</v>
+        <v>159</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -4056,29 +3055,29 @@
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>524</v>
+      <c r="A6" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>501</v>
+        <v>160</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>502</v>
+        <v>161</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>485</v>
+        <v>162</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>504</v>
+        <v>163</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -4092,29 +3091,29 @@
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>525</v>
+      <c r="A7" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>505</v>
+        <v>164</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>506</v>
+        <v>165</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>485</v>
+        <v>166</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>508</v>
+        <v>167</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
@@ -4128,29 +3127,29 @@
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>526</v>
+      <c r="A8" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>509</v>
+        <v>168</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>510</v>
+        <v>169</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>485</v>
+        <v>170</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>512</v>
+        <v>171</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -4164,29 +3163,29 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>527</v>
+      <c r="A9" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>513</v>
+        <v>172</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>514</v>
+        <v>173</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>485</v>
+        <v>174</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>516</v>
+        <v>175</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -4200,29 +3199,29 @@
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>528</v>
+      <c r="A10" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>517</v>
+        <v>176</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>518</v>
+        <v>177</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>485</v>
+        <v>178</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>520</v>
+        <v>179</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -4240,7 +3239,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="34"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -4259,7 +3258,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="34"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -4302,7 +3301,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="35"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="1"/>
@@ -4321,7 +3320,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="35"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -4359,7 +3358,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="35"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="1"/>
@@ -4378,7 +3377,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="35"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -4416,7 +3415,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="35"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="1"/>
@@ -4435,7 +3434,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="35"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -4563,7 +3562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2F08CA-A5DE-45FA-A34C-73FA0F2E9E41}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4585,63 +3584,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>452</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>453</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>454</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>458</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>460</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>461</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>464</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>465</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>463</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F2" s="38" t="b">
+        <v>118</v>
+      </c>
+      <c r="F2" s="35" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>462</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>466</v>
+        <v>125</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>467</v>
+        <v>126</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -4653,7 +3652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02286501-8169-47C9-B0C1-20840CFA8C0B}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -4674,313 +3673,313 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>354</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>322</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>356</v>
+        <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>357</v>
+        <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>362</v>
+        <v>21</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>486</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>534</v>
+      <c r="A2" s="34" t="s">
+        <v>193</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>535</v>
+        <v>194</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>531</v>
+        <v>190</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>485</v>
+        <v>192</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>492</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>397</v>
+      <c r="A3" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>485</v>
+        <v>127</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>496</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>398</v>
+      <c r="A4" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>381</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>485</v>
+        <v>128</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>500</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>399</v>
+      <c r="A5" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>383</v>
+        <v>42</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>485</v>
+        <v>129</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>504</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>400</v>
+      <c r="A6" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>485</v>
+        <v>130</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>508</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>401</v>
+      <c r="A7" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>387</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>388</v>
+        <v>47</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>485</v>
+        <v>131</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>512</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>402</v>
+      <c r="A8" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>389</v>
+        <v>48</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>390</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>485</v>
+        <v>132</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>516</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>403</v>
+      <c r="A9" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>391</v>
+        <v>50</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>392</v>
+        <v>51</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>485</v>
+        <v>133</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>520</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>404</v>
+      <c r="A10" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>393</v>
+        <v>52</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>394</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>485</v>
+        <v>134</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="9" t="s">
-        <v>395</v>
+        <v>54</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>396</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>485</v>
+        <v>135</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4990,12 +3989,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28877364-3A8C-400C-A086-72B83FEB2E27}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5007,62 +4006,74 @@
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>544</v>
+        <v>203</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>545</v>
+        <v>204</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>546</v>
+        <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>537</v>
+        <v>196</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>547</v>
+        <v>206</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>538</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>539</v>
+        <v>195</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>540</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>543</v>
+        <v>200</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>542</v>
+        <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>548</v>
+        <v>207</v>
       </c>
       <c r="I2" t="s">
-        <v>549</v>
+        <v>208</v>
+      </c>
+      <c r="J2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5071,7 +4082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76A90F2-FEBC-495D-96DD-9CDE989D1767}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -5087,36 +4098,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>444</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>529</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>445</v>
+      <c r="A2" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="36" t="s">
-        <v>446</v>
+      <c r="E3" s="33" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="36" t="s">
-        <v>447</v>
+      <c r="E4" s="33" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="36" t="s">
-        <v>448</v>
+      <c r="E5" s="33" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5125,7 +4136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC62FD-4EDF-4588-A45B-85367A874BBC}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -5142,156 +4153,156 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>366</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>431</v>
+        <v>77</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>432</v>
+        <v>78</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>433</v>
+        <v>79</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>434</v>
+        <v>80</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>435</v>
+        <v>81</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>436</v>
+        <v>82</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>437</v>
+        <v>83</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>438</v>
+        <v>84</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>439</v>
+        <v>85</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>440</v>
+        <v>86</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>441</v>
+        <v>87</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>429</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>442</v>
+        <v>88</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>443</v>
+        <v>89</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5301,1541 +4312,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH52"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="9" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE2" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="G3" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="G4" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="G5" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="G6" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="G7" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="G8" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="T13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="U13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-    </row>
-    <row r="14" spans="1:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-    </row>
-    <row r="17" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="W17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="X17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z17" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA17" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD17" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE17" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="U18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="W18" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="X18" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y18" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z18" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="L23" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="L24" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="L25" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="L28" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="K33" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="L33" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="M33" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="N33" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="O33" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="P33" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="49"/>
-      <c r="L34" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="K36" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="L36" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="M36" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="N36" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="O36" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="P36" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K37" s="49"/>
-      <c r="L37" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="K39" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="L39" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="M39" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="N39" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="O39" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="P39" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="K40" s="49"/>
-      <c r="L40" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="E45" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="R51" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="S51" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="T51" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="U51" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="P52" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q52" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R52" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="S52" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="T52" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="U52" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A33:A34"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="AE2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="F14" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="F18" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="Q22" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="H52" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
-</worksheet>
 </file>